--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A018FE3-5E42-4437-BDC6-2437655EC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7093F56C-A309-4EE9-8D0D-E2BFA5328B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined" sheetId="1" r:id="rId1"/>
-    <sheet name="renamed" sheetId="7" r:id="rId2"/>
-    <sheet name="exp_info" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="Schema" sheetId="2" r:id="rId6"/>
-    <sheet name="Most Important Variables" sheetId="3" r:id="rId7"/>
+    <sheet name="sample" sheetId="8" r:id="rId2"/>
+    <sheet name="renamed" sheetId="7" r:id="rId3"/>
+    <sheet name="exp_info" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Schema" sheetId="2" r:id="rId7"/>
+    <sheet name="Most Important Variables" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="265">
   <si>
     <t>_id</t>
   </si>
@@ -1428,7 +1429,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1452,6 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="14" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1813,7 +1815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24404,10 +24406,1291 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07AAD2-05C1-45AE-8C83-24A9A6762D71}">
+  <dimension ref="A1:BQ9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="33.125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="29" style="23" customWidth="1"/>
+    <col min="18" max="18" width="30.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="34.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="38" style="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="30" style="23" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34" style="23" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="9" style="23"/>
+    <col min="53" max="53" width="28.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="23">
+        <v>299</v>
+      </c>
+      <c r="E2" s="23">
+        <v>90</v>
+      </c>
+      <c r="F2" s="23">
+        <v>3.32</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="23">
+        <v>100</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="23">
+        <v>132</v>
+      </c>
+      <c r="K2" s="23">
+        <v>4</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="23">
+        <v>300</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>1500</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="23">
+        <v>1000</v>
+      </c>
+      <c r="AM2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="23">
+        <v>40</v>
+      </c>
+      <c r="AZ2" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="BF2" s="15">
+        <v>380</v>
+      </c>
+      <c r="BG2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI2" s="23">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="BK2" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BL2" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="23">
+        <v>199</v>
+      </c>
+      <c r="E3" s="23">
+        <v>55</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.62</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="23">
+        <v>40</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="23">
+        <v>180</v>
+      </c>
+      <c r="K3" s="23">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="23">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="S3" s="23">
+        <v>1.04</v>
+      </c>
+      <c r="T3" s="23">
+        <v>60</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="23">
+        <v>350</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>1500</v>
+      </c>
+      <c r="AD3" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3" s="23">
+        <v>1500</v>
+      </c>
+      <c r="AH3" s="23">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="23">
+        <v>25</v>
+      </c>
+      <c r="AP3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ3" s="23">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK3" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BL3" s="23">
+        <v>20</v>
+      </c>
+      <c r="BM3" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BN3" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BP3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="23">
+        <v>279</v>
+      </c>
+      <c r="E4" s="23">
+        <v>77</v>
+      </c>
+      <c r="F4" s="23">
+        <v>3.65</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="23">
+        <v>100</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="23">
+        <v>61.2</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="23">
+        <v>15</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="23">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>1000</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="23">
+        <v>1500</v>
+      </c>
+      <c r="AH4" s="23">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="23">
+        <v>25</v>
+      </c>
+      <c r="AQ4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ4" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BA4" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="BF4" s="23">
+        <v>1000</v>
+      </c>
+      <c r="BG4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK4" s="23">
+        <v>-20</v>
+      </c>
+      <c r="BL4" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM4" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BN4" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="23">
+        <v>-60</v>
+      </c>
+      <c r="BP4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="21">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="21">
+        <v>25</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="21">
+        <v>61.2</v>
+      </c>
+      <c r="K5" s="21">
+        <v>4</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="21">
+        <v>180</v>
+      </c>
+      <c r="N5" s="21">
+        <v>7</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21">
+        <v>75</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="21">
+        <v>400</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="AU5" s="21">
+        <v>3.91</v>
+      </c>
+      <c r="AV5" s="21">
+        <v>13.8</v>
+      </c>
+      <c r="AW5" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21">
+        <v>-100</v>
+      </c>
+      <c r="BK5" s="21">
+        <v>-100</v>
+      </c>
+      <c r="BL5" s="21">
+        <v>100</v>
+      </c>
+      <c r="BM5" s="21">
+        <v>-100</v>
+      </c>
+      <c r="BN5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="21"/>
+      <c r="BP5" s="21"/>
+      <c r="BQ5" s="21"/>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="23">
+        <v>292</v>
+      </c>
+      <c r="E6" s="23">
+        <v>143</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="23">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="23">
+        <v>132</v>
+      </c>
+      <c r="K6" s="23">
+        <v>5</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="23">
+        <v>300</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>2000</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ6" s="23">
+        <v>80</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>56</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AQ6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR6" s="23">
+        <v>75</v>
+      </c>
+      <c r="AS6" s="23">
+        <v>-46.5</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>19.7</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>3.7</v>
+      </c>
+      <c r="AV6" s="23">
+        <v>8.06</v>
+      </c>
+      <c r="AW6" s="23">
+        <v>2.62</v>
+      </c>
+      <c r="AZ6" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BA6" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>9.48</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>900</v>
+      </c>
+      <c r="BG6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ6" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BK6" s="23">
+        <v>-100</v>
+      </c>
+      <c r="BL6" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM6" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BN6" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BP6" s="23">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23">
+        <v>204</v>
+      </c>
+      <c r="E7" s="23">
+        <v>66</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="23">
+        <v>100</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="23">
+        <v>132</v>
+      </c>
+      <c r="K7" s="23">
+        <v>8</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="23">
+        <v>300</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="AD7" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="23">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" s="23">
+        <v>56</v>
+      </c>
+      <c r="AO7" s="23">
+        <v>56</v>
+      </c>
+      <c r="AP7" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AQ7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ7" s="23">
+        <v>0.16384179726813897</v>
+      </c>
+      <c r="BA7" s="17">
+        <v>1.7401449999999999E-2</v>
+      </c>
+      <c r="BD7" s="23">
+        <v>-3.4862833404758851</v>
+      </c>
+      <c r="BF7" s="23">
+        <v>10444.504246336979</v>
+      </c>
+      <c r="BG7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ7" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BK7" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BL7" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM7" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BN7" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BP7" s="23">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="23">
+        <v>110</v>
+      </c>
+      <c r="E8" s="23">
+        <v>44</v>
+      </c>
+      <c r="F8" s="23">
+        <f t="shared" ref="F8:F9" si="0">D8/E8</f>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="23">
+        <v>100</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="23">
+        <v>132</v>
+      </c>
+      <c r="K8" s="23">
+        <v>10</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="23">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="23">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN8" s="23">
+        <v>56</v>
+      </c>
+      <c r="AO8" s="23">
+        <v>56</v>
+      </c>
+      <c r="AP8" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AQ8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ8" s="23">
+        <v>2.7641647066358958E-2</v>
+      </c>
+      <c r="BA8" s="17">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="BD8" s="23">
+        <v>-9.5217261639167869</v>
+      </c>
+      <c r="BF8" s="23">
+        <v>14729.738626970278</v>
+      </c>
+      <c r="BG8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ8" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BK8" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BL8" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM8" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BN8" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BP8" s="23">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="23">
+        <v>110</v>
+      </c>
+      <c r="E9" s="23">
+        <v>44</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="23">
+        <v>100</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="23">
+        <v>132</v>
+      </c>
+      <c r="K9" s="23">
+        <v>12</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="23">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>2000</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="AE9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="23">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN9" s="23">
+        <v>56</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>56</v>
+      </c>
+      <c r="AP9" s="23">
+        <v>0.16</v>
+      </c>
+      <c r="AQ9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ9" s="23">
+        <v>4.6912305061686276E-2</v>
+      </c>
+      <c r="BA9" s="17">
+        <v>3.65E-3</v>
+      </c>
+      <c r="BD9" s="23">
+        <v>-4.4995725719320978</v>
+      </c>
+      <c r="BF9" s="23">
+        <v>76771.015165040473</v>
+      </c>
+      <c r="BG9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ9" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BK9" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BL9" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM9" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BN9" s="23">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="23">
+        <v>-80</v>
+      </c>
+      <c r="BP9" s="23">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E42B4B4-030D-4933-9E90-4561BED315D2}">
   <dimension ref="A1:BQ179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
@@ -46160,7 +47443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5FC629-3CE4-4DA3-A3AD-E73AD095151A}">
   <dimension ref="A1:B179"/>
   <sheetViews>
@@ -47097,7 +48380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7158CE8-2F6F-48A5-A865-6D486E64C46E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -47109,7 +48392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0640740C-CB5C-408A-ABDF-160AD8B38C96}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -47121,7 +48404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949A817A-BF9B-B54E-A183-9768435226E7}">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -47238,7 +48521,7 @@
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -47246,19 +48529,19 @@
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>222</v>
       </c>
     </row>
@@ -47266,19 +48549,19 @@
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -47422,7 +48705,7 @@
       <c r="A44" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>226</v>
       </c>
     </row>
@@ -47430,13 +48713,13 @@
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -47541,7 +48824,7 @@
       <c r="A66" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -47549,31 +48832,31 @@
       <c r="A67" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="24"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="24"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="24"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="24"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -47594,7 +48877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDC25A7-3202-2A49-ADBB-EBC38D4E062D}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA3DD7-C989-4CC6-B52D-0D0FCA72615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5CA06C-C7F5-4927-808C-FA363EAA78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Most Important Variables" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48534,7 +48535,7 @@
   <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E889FB2-655E-489C-9075-E77E3BB4E6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788F8EE-7EB9-48CA-A75B-C37554B49216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined" sheetId="1" r:id="rId1"/>
@@ -1739,7 +1739,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1765,6 +1765,7 @@
     <xf numFmtId="11" fontId="14" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,72 +2142,72 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.09765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="41.09765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.3984375" customWidth="1"/>
-    <col min="28" max="28" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.375" customWidth="1"/>
+    <col min="28" max="28" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="27.5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="30" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33.5" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="58.59765625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="32.8984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="32.875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.09765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="34.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="52" width="31.3984375" customWidth="1"/>
-    <col min="53" max="53" width="31.8984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="52" width="31.375" customWidth="1"/>
+    <col min="53" max="53" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="35" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="32.5" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="37" customWidth="1"/>
-    <col min="58" max="58" width="28.09765625" customWidth="1"/>
+    <col min="58" max="58" width="28.125" customWidth="1"/>
     <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="16" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="26.625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="27" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="27.375" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>62</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>62</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>62</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>62</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>70</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>70</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>70</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>70</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>70</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>70</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>70</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>70</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>70</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>38</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>80</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>80</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>80</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>80</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>80</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>80</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>80</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>84</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>84</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>84</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>84</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>87</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>91</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>91</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>95</v>
       </c>
@@ -9385,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>95</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>95</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>95</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>95</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>95</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>95</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>95</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>95</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>101</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>101</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>101</v>
       </c>
@@ -10792,7 +10793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>101</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>101</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>101</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21" t="s">
         <v>106</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>106</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>106</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>106</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:70" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>106</v>
       </c>
@@ -11771,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:70" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>110</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>110</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>113</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>113</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>117</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>117</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>117</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>117</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>117</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>117</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>117</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>117</v>
       </c>
@@ -13142,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>117</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>117</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>117</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>117</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>117</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>117</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>117</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>117</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>117</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>117</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>117</v>
       </c>
@@ -14487,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>117</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>117</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>117</v>
       </c>
@@ -14987,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>117</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>117</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>117</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>117</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>117</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>117</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>117</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>117</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>117</v>
       </c>
@@ -16112,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>117</v>
       </c>
@@ -16237,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>117</v>
       </c>
@@ -16362,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>117</v>
       </c>
@@ -16487,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>117</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -16910,7 +16911,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -17065,7 +17066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -17220,7 +17221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>129</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>131</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>131</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>131</v>
       </c>
@@ -17884,7 +17885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>131</v>
       </c>
@@ -18018,7 +18019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>135</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>135</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>135</v>
       </c>
@@ -18411,7 +18412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>135</v>
       </c>
@@ -18542,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>135</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>135</v>
       </c>
@@ -18804,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>38</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -19185,7 +19186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -19319,7 +19320,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -19450,7 +19451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -19584,7 +19585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -19715,7 +19716,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -19846,7 +19847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -19977,7 +19978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -20111,7 +20112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -20391,7 +20392,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -20531,7 +20532,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -20671,7 +20672,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -20802,7 +20803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -21374,7 +21375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -21508,7 +21509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -21651,7 +21652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -21937,7 +21938,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -22080,7 +22081,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -22214,7 +22215,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -22345,7 +22346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -22476,7 +22477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>196</v>
       </c>
@@ -22607,7 +22608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -22738,7 +22739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -22869,7 +22870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -23000,7 +23001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -23132,7 +23133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -23264,7 +23265,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -23396,7 +23397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -23528,7 +23529,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -23660,7 +23661,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -23792,7 +23793,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -23924,7 +23925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>232</v>
       </c>
@@ -24055,7 +24056,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -24186,7 +24187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>228</v>
       </c>
@@ -24317,7 +24318,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>229</v>
       </c>
@@ -24448,7 +24449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="178" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>230</v>
       </c>
@@ -24579,7 +24580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>231</v>
       </c>
@@ -24721,56 +24722,56 @@
   <dimension ref="A1:BQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="33.09765625" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="33.125" customWidth="1"/>
     <col min="17" max="17" width="29" customWidth="1"/>
-    <col min="18" max="18" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="34.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="31" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="38" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.375" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="30" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="34" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>237</v>
       </c>
@@ -24979,7 +24980,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -25074,7 +25075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>77</v>
       </c>
@@ -25193,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -25306,7 +25307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
         <v>107</v>
@@ -25455,7 +25456,7 @@
       <c r="BP5" s="21"/>
       <c r="BQ5" s="21"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -25604,7 +25605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -25732,7 +25733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -25861,7 +25862,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -25999,78 +26000,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E42B4B4-030D-4933-9E90-4561BED315D2}">
   <dimension ref="A1:BX179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="BU1" sqref="BU1"/>
+      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" customWidth="1"/>
-    <col min="5" max="5" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19" customWidth="1"/>
+    <col min="14" max="14" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
     <col min="19" max="19" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.69921875" customWidth="1"/>
-    <col min="22" max="23" width="33.69921875" customWidth="1"/>
-    <col min="24" max="24" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="33.09765625" customWidth="1"/>
-    <col min="28" max="28" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="33.75" customWidth="1"/>
+    <col min="24" max="24" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="33.125" customWidth="1"/>
+    <col min="28" max="28" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.75" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="39.19921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="34.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="31" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="38" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.375" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="30" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="34" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="38.09765625" customWidth="1"/>
-    <col min="53" max="53" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="38.125" customWidth="1"/>
+    <col min="53" max="53" width="23.25" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="16.25" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="19" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15.5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="25.3984375" customWidth="1"/>
+    <col min="60" max="60" width="25.375" customWidth="1"/>
     <col min="61" max="61" width="35" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -26300,7 +26302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26408,7 +26410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26519,7 +26521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -26630,7 +26632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -26741,7 +26743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -26852,7 +26854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -26963,7 +26965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -26992,7 +26994,7 @@
         <v>41</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>7964</v>
@@ -27074,7 +27076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27103,7 +27105,7 @@
         <v>41</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>7964</v>
@@ -27185,7 +27187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27214,7 +27216,7 @@
         <v>41</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>7964</v>
@@ -27296,7 +27298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27325,7 +27327,7 @@
         <v>41</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>7964</v>
@@ -27407,7 +27409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27436,7 +27438,7 @@
         <v>41</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>7964</v>
@@ -27518,7 +27520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27547,7 +27549,7 @@
         <v>41</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>6212</v>
@@ -27644,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27673,13 +27675,13 @@
         <v>41</v>
       </c>
       <c r="L14">
-        <v>0.83</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="M14" t="s">
         <v>68</v>
       </c>
       <c r="P14">
-        <v>99.17</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="Q14">
         <v>6212</v>
@@ -27776,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27805,13 +27807,13 @@
         <v>41</v>
       </c>
       <c r="L15">
-        <v>0.41</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="M15" t="s">
         <v>68</v>
       </c>
       <c r="P15">
-        <v>99.59</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="Q15">
         <v>6212</v>
@@ -27905,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -27934,13 +27936,13 @@
         <v>41</v>
       </c>
       <c r="L16">
-        <v>0.49</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="M16" t="s">
         <v>68</v>
       </c>
       <c r="P16">
-        <v>99.51</v>
+        <v>0.9951000000000001</v>
       </c>
       <c r="Q16">
         <v>6212</v>
@@ -28034,7 +28036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -28063,13 +28065,13 @@
         <v>41</v>
       </c>
       <c r="L17">
-        <v>0.62</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="M17" t="s">
         <v>68</v>
       </c>
       <c r="P17">
-        <v>99.38</v>
+        <v>0.99379999999999991</v>
       </c>
       <c r="Q17">
         <v>6212</v>
@@ -28163,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -28192,13 +28194,13 @@
         <v>41</v>
       </c>
       <c r="L18">
-        <v>1.23</v>
+        <v>1.23E-2</v>
       </c>
       <c r="M18" t="s">
         <v>68</v>
       </c>
       <c r="P18">
-        <v>98.77</v>
+        <v>0.98769999999999991</v>
       </c>
       <c r="Q18">
         <v>6212</v>
@@ -28292,7 +28294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -28321,13 +28323,13 @@
         <v>41</v>
       </c>
       <c r="L19">
-        <v>2.44</v>
+        <v>2.4399999999999998E-2</v>
       </c>
       <c r="M19" t="s">
         <v>68</v>
       </c>
       <c r="P19">
-        <v>97.56</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="Q19">
         <v>6212</v>
@@ -28421,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -28450,13 +28452,13 @@
         <v>41</v>
       </c>
       <c r="L20">
-        <v>16.670000000000002</v>
+        <v>0.16670000000000001</v>
       </c>
       <c r="M20" t="s">
         <v>68</v>
       </c>
       <c r="P20">
-        <v>83.33</v>
+        <v>0.83329999999999993</v>
       </c>
       <c r="Q20">
         <v>6212</v>
@@ -28550,7 +28552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -28579,13 +28581,13 @@
         <v>41</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="M21" t="s">
         <v>68</v>
       </c>
       <c r="P21">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="Q21">
         <v>6212</v>
@@ -28679,7 +28681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -28708,7 +28710,7 @@
         <v>41</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>7964</v>
@@ -28751,7 +28753,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -28780,7 +28782,7 @@
         <v>41</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>7964</v>
@@ -28823,7 +28825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -28852,7 +28854,7 @@
         <v>41</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>7964</v>
@@ -28904,7 +28906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -28933,7 +28935,7 @@
         <v>41</v>
       </c>
       <c r="L25">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>7964</v>
@@ -29045,7 +29047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -29074,7 +29076,7 @@
         <v>41</v>
       </c>
       <c r="L26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>7964</v>
@@ -29186,7 +29188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -29215,7 +29217,7 @@
         <v>41</v>
       </c>
       <c r="L27">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>7964</v>
@@ -29327,7 +29329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -29356,7 +29358,7 @@
         <v>41</v>
       </c>
       <c r="L28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>7964</v>
@@ -29468,7 +29470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -29497,7 +29499,7 @@
         <v>41</v>
       </c>
       <c r="L29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>7964</v>
@@ -29609,7 +29611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -29638,7 +29640,7 @@
         <v>41</v>
       </c>
       <c r="L30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>7964</v>
@@ -29751,7 +29753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -29780,7 +29782,7 @@
         <v>41</v>
       </c>
       <c r="L31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>7964</v>
@@ -29893,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -29922,7 +29924,7 @@
         <v>41</v>
       </c>
       <c r="L32">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>7964</v>
@@ -30035,7 +30037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -30064,7 +30066,7 @@
         <v>41</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>7964</v>
@@ -30173,7 +30175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -30202,7 +30204,7 @@
         <v>41</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>7964</v>
@@ -30311,7 +30313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -30340,7 +30342,7 @@
         <v>41</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>7964</v>
@@ -30458,7 +30460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -30487,7 +30489,7 @@
         <v>41</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>7239</v>
@@ -30496,7 +30498,7 @@
         <v>321</v>
       </c>
       <c r="S36">
-        <v>180</v>
+        <v>180.5</v>
       </c>
       <c r="T36">
         <v>4</v>
@@ -30593,7 +30595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -30622,7 +30624,7 @@
         <v>41</v>
       </c>
       <c r="L37">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="M37" t="s">
         <v>79</v>
@@ -30634,7 +30636,7 @@
         <v>1.01</v>
       </c>
       <c r="P37">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="Q37">
         <v>7239</v>
@@ -30642,8 +30644,8 @@
       <c r="R37" t="s">
         <v>321</v>
       </c>
-      <c r="S37">
-        <v>180</v>
+      <c r="S37" s="25">
+        <v>180.5</v>
       </c>
       <c r="T37">
         <v>4</v>
@@ -30734,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -30763,7 +30765,7 @@
         <v>41</v>
       </c>
       <c r="L38">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M38" t="s">
         <v>79</v>
@@ -30775,7 +30777,7 @@
         <v>1.01</v>
       </c>
       <c r="P38">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="Q38">
         <v>7239</v>
@@ -30783,8 +30785,8 @@
       <c r="R38" t="s">
         <v>321</v>
       </c>
-      <c r="S38">
-        <v>180</v>
+      <c r="S38" s="25">
+        <v>180.5</v>
       </c>
       <c r="T38">
         <v>4</v>
@@ -30878,7 +30880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -30907,7 +30909,7 @@
         <v>41</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M39" t="s">
         <v>79</v>
@@ -30919,7 +30921,7 @@
         <v>1.01</v>
       </c>
       <c r="P39">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q39">
         <v>7239</v>
@@ -30927,8 +30929,8 @@
       <c r="R39" t="s">
         <v>321</v>
       </c>
-      <c r="S39">
-        <v>180</v>
+      <c r="S39" s="25">
+        <v>180.5</v>
       </c>
       <c r="T39">
         <v>4</v>
@@ -31019,7 +31021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -31048,7 +31050,7 @@
         <v>41</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M40" t="s">
         <v>79</v>
@@ -31060,7 +31062,7 @@
         <v>1.01</v>
       </c>
       <c r="P40">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="Q40">
         <v>7239</v>
@@ -31068,8 +31070,8 @@
       <c r="R40" t="s">
         <v>321</v>
       </c>
-      <c r="S40">
-        <v>180</v>
+      <c r="S40" s="25">
+        <v>180.5</v>
       </c>
       <c r="T40">
         <v>4</v>
@@ -31160,7 +31162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -31189,7 +31191,7 @@
         <v>41</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M41" t="s">
         <v>79</v>
@@ -31201,7 +31203,7 @@
         <v>1.03</v>
       </c>
       <c r="P41">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q41">
         <v>7239</v>
@@ -31209,8 +31211,8 @@
       <c r="R41" t="s">
         <v>321</v>
       </c>
-      <c r="S41">
-        <v>180</v>
+      <c r="S41" s="25">
+        <v>180.5</v>
       </c>
       <c r="T41">
         <v>4</v>
@@ -31295,7 +31297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -31324,7 +31326,7 @@
         <v>41</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M42" t="s">
         <v>79</v>
@@ -31336,7 +31338,7 @@
         <v>1.03</v>
       </c>
       <c r="P42">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q42">
         <v>7239</v>
@@ -31344,8 +31346,8 @@
       <c r="R42" t="s">
         <v>321</v>
       </c>
-      <c r="S42">
-        <v>180</v>
+      <c r="S42" s="25">
+        <v>180.5</v>
       </c>
       <c r="T42">
         <v>4</v>
@@ -31430,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -31459,7 +31461,7 @@
         <v>41</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M43" t="s">
         <v>79</v>
@@ -31471,7 +31473,7 @@
         <v>1.04</v>
       </c>
       <c r="P43">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q43">
         <v>7239</v>
@@ -31479,8 +31481,8 @@
       <c r="R43" t="s">
         <v>321</v>
       </c>
-      <c r="S43">
-        <v>180</v>
+      <c r="S43" s="25">
+        <v>180.5</v>
       </c>
       <c r="T43">
         <v>4</v>
@@ -31565,7 +31567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -31594,7 +31596,7 @@
         <v>41</v>
       </c>
       <c r="L44">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>6212</v>
@@ -31682,7 +31684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -31711,7 +31713,7 @@
         <v>41</v>
       </c>
       <c r="L45">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>6212</v>
@@ -31802,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -31831,7 +31833,7 @@
         <v>41</v>
       </c>
       <c r="L46">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>6212</v>
@@ -31922,7 +31924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -31951,7 +31953,7 @@
         <v>41</v>
       </c>
       <c r="L47">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>6212</v>
@@ -32042,7 +32044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -32071,7 +32073,7 @@
         <v>41</v>
       </c>
       <c r="L48">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>6212</v>
@@ -32159,7 +32161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -32188,7 +32190,7 @@
         <v>41</v>
       </c>
       <c r="L49">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>6212</v>
@@ -32279,7 +32281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -32308,7 +32310,7 @@
         <v>41</v>
       </c>
       <c r="L50">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>6212</v>
@@ -32399,7 +32401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -32428,7 +32430,7 @@
         <v>41</v>
       </c>
       <c r="L51">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>6212</v>
@@ -32519,7 +32521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -32548,7 +32550,7 @@
         <v>41</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>7239</v>
@@ -32556,8 +32558,8 @@
       <c r="R52" t="s">
         <v>321</v>
       </c>
-      <c r="S52">
-        <v>180</v>
+      <c r="S52" s="25">
+        <v>180.5</v>
       </c>
       <c r="T52">
         <v>3</v>
@@ -32673,7 +32675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -32702,7 +32704,7 @@
         <v>41</v>
       </c>
       <c r="L53">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>7239</v>
@@ -32710,8 +32712,8 @@
       <c r="R53" t="s">
         <v>321</v>
       </c>
-      <c r="S53">
-        <v>180</v>
+      <c r="S53" s="25">
+        <v>180.5</v>
       </c>
       <c r="T53">
         <v>3</v>
@@ -32821,7 +32823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -32850,7 +32852,7 @@
         <v>41</v>
       </c>
       <c r="L54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>7239</v>
@@ -32858,8 +32860,8 @@
       <c r="R54" t="s">
         <v>321</v>
       </c>
-      <c r="S54">
-        <v>180</v>
+      <c r="S54" s="25">
+        <v>180.5</v>
       </c>
       <c r="T54">
         <v>7</v>
@@ -32975,7 +32977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -33004,7 +33006,7 @@
         <v>41</v>
       </c>
       <c r="L55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <v>7239</v>
@@ -33012,8 +33014,8 @@
       <c r="R55" t="s">
         <v>321</v>
       </c>
-      <c r="S55">
-        <v>180</v>
+      <c r="S55" s="25">
+        <v>180.5</v>
       </c>
       <c r="T55">
         <v>7</v>
@@ -33132,7 +33134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -33161,7 +33163,7 @@
         <v>41</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>6212</v>
@@ -33267,7 +33269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -33296,7 +33298,7 @@
         <v>41</v>
       </c>
       <c r="L57">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>6212</v>
@@ -33390,7 +33392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -33419,7 +33421,7 @@
         <v>41</v>
       </c>
       <c r="L58">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>6212</v>
@@ -33519,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -33548,7 +33550,7 @@
         <v>97</v>
       </c>
       <c r="L59">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q59">
         <v>6212</v>
@@ -33658,7 +33660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -33687,7 +33689,7 @@
         <v>97</v>
       </c>
       <c r="L60">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>6212</v>
@@ -33797,7 +33799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -33826,7 +33828,7 @@
         <v>97</v>
       </c>
       <c r="L61">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <v>6212</v>
@@ -33936,7 +33938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -33965,7 +33967,7 @@
         <v>97</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>6212</v>
@@ -34075,7 +34077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -34104,7 +34106,7 @@
         <v>97</v>
       </c>
       <c r="L63">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>6212</v>
@@ -34214,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -34243,7 +34245,7 @@
         <v>97</v>
       </c>
       <c r="L64">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>6212</v>
@@ -34353,7 +34355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -34382,7 +34384,7 @@
         <v>97</v>
       </c>
       <c r="L65">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q65">
         <v>6212</v>
@@ -34492,7 +34494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -34521,7 +34523,7 @@
         <v>97</v>
       </c>
       <c r="L66">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>6212</v>
@@ -34631,7 +34633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -34660,7 +34662,7 @@
         <v>97</v>
       </c>
       <c r="L67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>6212</v>
@@ -34770,7 +34772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -34799,7 +34801,7 @@
         <v>97</v>
       </c>
       <c r="L68">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q68">
         <v>6212</v>
@@ -34909,7 +34911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -34932,7 +34934,7 @@
         <v>41</v>
       </c>
       <c r="L69">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>7239</v>
@@ -34940,8 +34942,8 @@
       <c r="R69" t="s">
         <v>321</v>
       </c>
-      <c r="S69">
-        <v>180</v>
+      <c r="S69" s="25">
+        <v>180.5</v>
       </c>
       <c r="T69">
         <v>2</v>
@@ -35035,7 +35037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -35057,6 +35059,9 @@
       <c r="K70" t="s">
         <v>41</v>
       </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
       <c r="M70" t="s">
         <v>79</v>
       </c>
@@ -35069,8 +35074,8 @@
       <c r="R70" t="s">
         <v>321</v>
       </c>
-      <c r="S70">
-        <v>180</v>
+      <c r="S70" s="25">
+        <v>180.5</v>
       </c>
       <c r="T70">
         <v>2</v>
@@ -35164,7 +35169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -35186,6 +35191,9 @@
       <c r="K71" t="s">
         <v>41</v>
       </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
       <c r="M71" t="s">
         <v>79</v>
       </c>
@@ -35198,8 +35206,8 @@
       <c r="R71" t="s">
         <v>321</v>
       </c>
-      <c r="S71">
-        <v>180</v>
+      <c r="S71" s="25">
+        <v>180.5</v>
       </c>
       <c r="T71">
         <v>2</v>
@@ -35296,7 +35304,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -35318,6 +35326,9 @@
       <c r="K72" t="s">
         <v>41</v>
       </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
       <c r="M72" t="s">
         <v>79</v>
       </c>
@@ -35330,8 +35341,8 @@
       <c r="R72" t="s">
         <v>321</v>
       </c>
-      <c r="S72">
-        <v>180</v>
+      <c r="S72" s="25">
+        <v>180.5</v>
       </c>
       <c r="T72">
         <v>2</v>
@@ -35428,7 +35439,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -35450,6 +35461,9 @@
       <c r="K73" t="s">
         <v>41</v>
       </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
       <c r="M73" t="s">
         <v>79</v>
       </c>
@@ -35462,8 +35476,8 @@
       <c r="R73" t="s">
         <v>321</v>
       </c>
-      <c r="S73">
-        <v>180</v>
+      <c r="S73" s="25">
+        <v>180.5</v>
       </c>
       <c r="T73">
         <v>2</v>
@@ -35557,7 +35571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -35579,6 +35593,9 @@
       <c r="K74" t="s">
         <v>41</v>
       </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
       <c r="M74" t="s">
         <v>79</v>
       </c>
@@ -35591,8 +35608,8 @@
       <c r="R74" t="s">
         <v>321</v>
       </c>
-      <c r="S74">
-        <v>180</v>
+      <c r="S74" s="25">
+        <v>180.5</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -35686,7 +35703,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -35717,7 +35734,7 @@
         <v>41</v>
       </c>
       <c r="L75" s="23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
@@ -35851,7 +35868,7 @@
       <c r="BW75" s="23"/>
       <c r="BX75" s="23"/>
     </row>
-    <row r="76" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -35882,7 +35899,7 @@
         <v>41</v>
       </c>
       <c r="L76" s="23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
@@ -36008,7 +36025,7 @@
       <c r="BW76" s="23"/>
       <c r="BX76" s="23"/>
     </row>
-    <row r="77" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -36039,7 +36056,7 @@
         <v>41</v>
       </c>
       <c r="L77" s="23">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
@@ -36173,7 +36190,7 @@
       <c r="BW77" s="23"/>
       <c r="BX77" s="23"/>
     </row>
-    <row r="78" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -36204,7 +36221,7 @@
         <v>41</v>
       </c>
       <c r="L78" s="23">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="M78" s="23" t="s">
         <v>109</v>
@@ -36212,7 +36229,7 @@
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
       <c r="P78" s="23">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="Q78">
         <v>6212</v>
@@ -36336,7 +36353,7 @@
       <c r="BW78" s="23"/>
       <c r="BX78" s="23"/>
     </row>
-    <row r="79" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -36367,7 +36384,7 @@
         <v>41</v>
       </c>
       <c r="L79" s="23">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="M79" s="23" t="s">
         <v>109</v>
@@ -36375,7 +36392,7 @@
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
       <c r="P79" s="23">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="Q79">
         <v>6212</v>
@@ -36503,7 +36520,7 @@
       <c r="BW79" s="23"/>
       <c r="BX79" s="23"/>
     </row>
-    <row r="80" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -36526,7 +36543,7 @@
         <v>41</v>
       </c>
       <c r="L80">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M80" t="s">
         <v>112</v>
@@ -36602,7 +36619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -36625,13 +36642,13 @@
         <v>41</v>
       </c>
       <c r="L81">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="M81" t="s">
         <v>112</v>
       </c>
       <c r="P81">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="T81">
         <v>10</v>
@@ -36704,7 +36721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -36724,7 +36741,7 @@
         <v>41</v>
       </c>
       <c r="L82">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>6212</v>
@@ -36815,7 +36832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -36835,7 +36852,7 @@
         <v>41</v>
       </c>
       <c r="L83">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <v>6212</v>
@@ -36926,7 +36943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -36955,7 +36972,7 @@
         <v>97</v>
       </c>
       <c r="L84">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>6212</v>
@@ -37058,7 +37075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -37087,7 +37104,7 @@
         <v>97</v>
       </c>
       <c r="L85">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>6212</v>
@@ -37190,7 +37207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -37219,7 +37236,7 @@
         <v>97</v>
       </c>
       <c r="L86">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q86">
         <v>6212</v>
@@ -37322,7 +37339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -37351,7 +37368,7 @@
         <v>97</v>
       </c>
       <c r="L87">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q87">
         <v>6212</v>
@@ -37454,7 +37471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -37483,7 +37500,7 @@
         <v>97</v>
       </c>
       <c r="L88">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q88">
         <v>6212</v>
@@ -37586,7 +37603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -37615,7 +37632,7 @@
         <v>97</v>
       </c>
       <c r="L89">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q89">
         <v>6212</v>
@@ -37718,7 +37735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -37747,7 +37764,7 @@
         <v>97</v>
       </c>
       <c r="L90">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>6212</v>
@@ -37850,7 +37867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -37879,7 +37896,7 @@
         <v>97</v>
       </c>
       <c r="L91">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>6212</v>
@@ -37982,7 +37999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -38011,7 +38028,7 @@
         <v>97</v>
       </c>
       <c r="L92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>6212</v>
@@ -38114,7 +38131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -38143,7 +38160,7 @@
         <v>97</v>
       </c>
       <c r="L93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q93">
         <v>6212</v>
@@ -38246,7 +38263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -38275,7 +38292,7 @@
         <v>97</v>
       </c>
       <c r="L94">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q94">
         <v>6212</v>
@@ -38378,7 +38395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -38407,7 +38424,7 @@
         <v>97</v>
       </c>
       <c r="L95">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q95">
         <v>6212</v>
@@ -38510,7 +38527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -38539,7 +38556,7 @@
         <v>97</v>
       </c>
       <c r="L96">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q96">
         <v>6212</v>
@@ -38642,7 +38659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -38671,7 +38688,7 @@
         <v>97</v>
       </c>
       <c r="L97">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q97">
         <v>6212</v>
@@ -38774,7 +38791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -38803,7 +38820,7 @@
         <v>97</v>
       </c>
       <c r="L98">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>6212</v>
@@ -38906,7 +38923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -38935,7 +38952,7 @@
         <v>97</v>
       </c>
       <c r="L99">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>6212</v>
@@ -39038,7 +39055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -39067,7 +39084,7 @@
         <v>97</v>
       </c>
       <c r="L100">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q100">
         <v>6212</v>
@@ -39170,7 +39187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -39199,7 +39216,7 @@
         <v>97</v>
       </c>
       <c r="L101">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q101">
         <v>6212</v>
@@ -39302,7 +39319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -39331,7 +39348,7 @@
         <v>97</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q102">
         <v>6212</v>
@@ -39437,7 +39454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -39466,7 +39483,7 @@
         <v>97</v>
       </c>
       <c r="L103">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q103">
         <v>6212</v>
@@ -39572,7 +39589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -39601,7 +39618,7 @@
         <v>97</v>
       </c>
       <c r="L104">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q104">
         <v>6212</v>
@@ -39707,7 +39724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -39736,7 +39753,7 @@
         <v>97</v>
       </c>
       <c r="L105">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q105">
         <v>6212</v>
@@ -39842,7 +39859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -39871,7 +39888,7 @@
         <v>97</v>
       </c>
       <c r="L106">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q106">
         <v>6212</v>
@@ -39977,7 +39994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -40006,7 +40023,7 @@
         <v>97</v>
       </c>
       <c r="L107">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q107">
         <v>6212</v>
@@ -40112,7 +40129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -40141,7 +40158,7 @@
         <v>97</v>
       </c>
       <c r="L108">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q108">
         <v>6212</v>
@@ -40247,7 +40264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -40276,7 +40293,7 @@
         <v>97</v>
       </c>
       <c r="L109">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q109">
         <v>6212</v>
@@ -40382,7 +40399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -40411,7 +40428,7 @@
         <v>97</v>
       </c>
       <c r="L110">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q110">
         <v>6212</v>
@@ -40517,7 +40534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -40546,7 +40563,7 @@
         <v>97</v>
       </c>
       <c r="L111">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q111">
         <v>6212</v>
@@ -40652,7 +40669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -40681,7 +40698,7 @@
         <v>97</v>
       </c>
       <c r="L112">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q112">
         <v>6212</v>
@@ -40787,7 +40804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -40816,7 +40833,7 @@
         <v>97</v>
       </c>
       <c r="L113">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q113">
         <v>6212</v>
@@ -40922,7 +40939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -40951,7 +40968,7 @@
         <v>97</v>
       </c>
       <c r="L114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q114">
         <v>6212</v>
@@ -41057,7 +41074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -41086,7 +41103,7 @@
         <v>97</v>
       </c>
       <c r="L115">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q115">
         <v>6212</v>
@@ -41192,7 +41209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -41221,7 +41238,7 @@
         <v>97</v>
       </c>
       <c r="L116">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q116">
         <v>6212</v>
@@ -41327,7 +41344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -41356,7 +41373,7 @@
         <v>97</v>
       </c>
       <c r="L117">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q117">
         <v>6212</v>
@@ -41462,7 +41479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -41491,7 +41508,7 @@
         <v>97</v>
       </c>
       <c r="L118">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q118">
         <v>6212</v>
@@ -41597,7 +41614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -41626,7 +41643,7 @@
         <v>97</v>
       </c>
       <c r="L119">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q119">
         <v>6212</v>
@@ -41732,7 +41749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -41767,7 +41784,7 @@
         <v>41</v>
       </c>
       <c r="L120">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q120">
         <v>7964</v>
@@ -41888,7 +41905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -41923,7 +41940,7 @@
         <v>41</v>
       </c>
       <c r="L121">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q121">
         <v>7964</v>
@@ -42056,7 +42073,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -42091,7 +42108,7 @@
         <v>41</v>
       </c>
       <c r="L122">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q122">
         <v>7964</v>
@@ -42224,7 +42241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -42259,7 +42276,7 @@
         <v>41</v>
       </c>
       <c r="L123">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q123">
         <v>7964</v>
@@ -42392,7 +42409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -42427,7 +42444,7 @@
         <v>41</v>
       </c>
       <c r="L124">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>7964</v>
@@ -42560,7 +42577,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -42589,7 +42606,7 @@
         <v>41</v>
       </c>
       <c r="L125">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q125">
         <v>7239</v>
@@ -42597,8 +42614,8 @@
       <c r="R125" t="s">
         <v>321</v>
       </c>
-      <c r="S125">
-        <v>180</v>
+      <c r="S125" s="25">
+        <v>180.5</v>
       </c>
       <c r="T125">
         <v>5</v>
@@ -42689,7 +42706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -42718,7 +42735,7 @@
         <v>41</v>
       </c>
       <c r="L126">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q126">
         <v>7239</v>
@@ -42726,8 +42743,8 @@
       <c r="R126" t="s">
         <v>321</v>
       </c>
-      <c r="S126">
-        <v>180</v>
+      <c r="S126" s="25">
+        <v>180.5</v>
       </c>
       <c r="T126">
         <v>10</v>
@@ -42827,7 +42844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -42856,7 +42873,7 @@
         <v>41</v>
       </c>
       <c r="L127">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q127">
         <v>7239</v>
@@ -42864,8 +42881,8 @@
       <c r="R127" t="s">
         <v>321</v>
       </c>
-      <c r="S127">
-        <v>180</v>
+      <c r="S127" s="25">
+        <v>180.5</v>
       </c>
       <c r="T127">
         <v>10</v>
@@ -42965,7 +42982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -42994,7 +43011,7 @@
         <v>41</v>
       </c>
       <c r="L128">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q128">
         <v>7239</v>
@@ -43002,8 +43019,8 @@
       <c r="R128" t="s">
         <v>321</v>
       </c>
-      <c r="S128">
-        <v>180</v>
+      <c r="S128" s="25">
+        <v>180.5</v>
       </c>
       <c r="T128">
         <v>10</v>
@@ -43109,7 +43126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -43138,7 +43155,7 @@
         <v>41</v>
       </c>
       <c r="L129">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q129">
         <v>7239</v>
@@ -43146,8 +43163,8 @@
       <c r="R129" t="s">
         <v>321</v>
       </c>
-      <c r="S129">
-        <v>180</v>
+      <c r="S129" s="25">
+        <v>180.5</v>
       </c>
       <c r="T129">
         <v>10</v>
@@ -43250,7 +43267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -43279,7 +43296,7 @@
         <v>97</v>
       </c>
       <c r="L130">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <v>6212</v>
@@ -43391,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -43420,7 +43437,7 @@
         <v>97</v>
       </c>
       <c r="L131">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q131">
         <v>6212</v>
@@ -43532,7 +43549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -43561,7 +43578,7 @@
         <v>97</v>
       </c>
       <c r="L132">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q132">
         <v>6212</v>
@@ -43673,7 +43690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -43702,7 +43719,7 @@
         <v>97</v>
       </c>
       <c r="L133">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q133">
         <v>6212</v>
@@ -43814,7 +43831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -43843,7 +43860,7 @@
         <v>97</v>
       </c>
       <c r="L134">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q134">
         <v>6212</v>
@@ -43955,7 +43972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -43984,7 +44001,7 @@
         <v>97</v>
       </c>
       <c r="L135">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q135">
         <v>6212</v>
@@ -44096,7 +44113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -44125,7 +44142,7 @@
         <v>41</v>
       </c>
       <c r="L136">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q136">
         <v>7239</v>
@@ -44133,8 +44150,8 @@
       <c r="R136" t="s">
         <v>321</v>
       </c>
-      <c r="S136">
-        <v>180</v>
+      <c r="S136" s="25">
+        <v>180.5</v>
       </c>
       <c r="T136">
         <v>4</v>
@@ -44219,7 +44236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -44251,7 +44268,7 @@
         <v>41</v>
       </c>
       <c r="L137">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q137">
         <v>7964</v>
@@ -44366,7 +44383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -44398,7 +44415,7 @@
         <v>41</v>
       </c>
       <c r="L138">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q138">
         <v>7964</v>
@@ -44513,7 +44530,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="139" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -44545,7 +44562,7 @@
         <v>41</v>
       </c>
       <c r="L139">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q139">
         <v>7964</v>
@@ -44660,7 +44677,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -44692,7 +44709,7 @@
         <v>41</v>
       </c>
       <c r="L140">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q140">
         <v>7964</v>
@@ -44804,7 +44821,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -44836,7 +44853,7 @@
         <v>41</v>
       </c>
       <c r="L141">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q141">
         <v>7964</v>
@@ -44951,7 +44968,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -44983,7 +45000,7 @@
         <v>41</v>
       </c>
       <c r="L142">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q142">
         <v>7964</v>
@@ -45095,7 +45112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="143" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -45127,7 +45144,7 @@
         <v>41</v>
       </c>
       <c r="L143">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q143">
         <v>7964</v>
@@ -45239,7 +45256,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -45271,7 +45288,7 @@
         <v>41</v>
       </c>
       <c r="L144">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q144">
         <v>7964</v>
@@ -45383,7 +45400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -45415,7 +45432,7 @@
         <v>41</v>
       </c>
       <c r="L145">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q145">
         <v>7964</v>
@@ -45530,7 +45547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -45562,7 +45579,7 @@
         <v>41</v>
       </c>
       <c r="L146">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M146" t="s">
         <v>79</v>
@@ -45571,7 +45588,7 @@
         <v>35</v>
       </c>
       <c r="P146">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="Q146">
         <v>7964</v>
@@ -45686,7 +45703,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -45718,7 +45735,7 @@
         <v>41</v>
       </c>
       <c r="L147">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M147" t="s">
         <v>79</v>
@@ -45727,7 +45744,7 @@
         <v>35</v>
       </c>
       <c r="P147">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q147">
         <v>7964</v>
@@ -45842,7 +45859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -45874,7 +45891,7 @@
         <v>41</v>
       </c>
       <c r="L148">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M148" t="s">
         <v>79</v>
@@ -45883,7 +45900,7 @@
         <v>35</v>
       </c>
       <c r="P148">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="Q148">
         <v>7964</v>
@@ -45998,7 +46015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -46030,7 +46047,7 @@
         <v>41</v>
       </c>
       <c r="L149">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="M149" t="s">
         <v>79</v>
@@ -46039,7 +46056,7 @@
         <v>35</v>
       </c>
       <c r="P149">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="Q149">
         <v>7964</v>
@@ -46154,7 +46171,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -46186,7 +46203,7 @@
         <v>41</v>
       </c>
       <c r="L150">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q150">
         <v>7964</v>
@@ -46301,7 +46318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -46333,7 +46350,7 @@
         <v>41</v>
       </c>
       <c r="L151">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M151" t="s">
         <v>79</v>
@@ -46342,7 +46359,7 @@
         <v>35</v>
       </c>
       <c r="P151">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="Q151">
         <v>7964</v>
@@ -46457,7 +46474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -46489,7 +46506,7 @@
         <v>41</v>
       </c>
       <c r="L152">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M152" t="s">
         <v>79</v>
@@ -46498,7 +46515,7 @@
         <v>35</v>
       </c>
       <c r="P152">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q152">
         <v>7964</v>
@@ -46613,7 +46630,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -46645,7 +46662,7 @@
         <v>41</v>
       </c>
       <c r="L153">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M153" t="s">
         <v>79</v>
@@ -46654,7 +46671,7 @@
         <v>35</v>
       </c>
       <c r="P153">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="Q153">
         <v>7964</v>
@@ -46769,7 +46786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -46801,7 +46818,7 @@
         <v>41</v>
       </c>
       <c r="L154">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="M154" t="s">
         <v>79</v>
@@ -46810,7 +46827,7 @@
         <v>35</v>
       </c>
       <c r="P154">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="Q154">
         <v>7964</v>
@@ -46925,7 +46942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -46957,7 +46974,7 @@
         <v>41</v>
       </c>
       <c r="L155">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q155">
         <v>7964</v>
@@ -47072,7 +47089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -47104,7 +47121,7 @@
         <v>41</v>
       </c>
       <c r="L156">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="M156" t="s">
         <v>79</v>
@@ -47113,7 +47130,7 @@
         <v>35</v>
       </c>
       <c r="P156">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="Q156">
         <v>7964</v>
@@ -47231,7 +47248,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -47263,7 +47280,7 @@
         <v>41</v>
       </c>
       <c r="L157">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M157" t="s">
         <v>79</v>
@@ -47272,7 +47289,7 @@
         <v>35</v>
       </c>
       <c r="P157">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q157">
         <v>7964</v>
@@ -47390,7 +47407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -47422,7 +47439,7 @@
         <v>41</v>
       </c>
       <c r="L158">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M158" t="s">
         <v>79</v>
@@ -47431,7 +47448,7 @@
         <v>35</v>
       </c>
       <c r="P158">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="Q158">
         <v>7964</v>
@@ -47549,7 +47566,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -47581,7 +47598,7 @@
         <v>41</v>
       </c>
       <c r="L159">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="M159" t="s">
         <v>79</v>
@@ -47590,7 +47607,7 @@
         <v>35</v>
       </c>
       <c r="P159">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="Q159">
         <v>7964</v>
@@ -47708,7 +47725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -47740,7 +47757,7 @@
         <v>41</v>
       </c>
       <c r="L160">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q160">
         <v>7964</v>
@@ -47858,7 +47875,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -47890,7 +47907,7 @@
         <v>41</v>
       </c>
       <c r="L161">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q161">
         <v>7964</v>
@@ -48002,7 +48019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -48034,7 +48051,7 @@
         <v>41</v>
       </c>
       <c r="L162">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q162">
         <v>7964</v>
@@ -48146,7 +48163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -48178,7 +48195,7 @@
         <v>41</v>
       </c>
       <c r="L163">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q163">
         <v>7964</v>
@@ -48290,7 +48307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="164" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -48322,7 +48339,7 @@
         <v>41</v>
       </c>
       <c r="L164">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q164">
         <v>7964</v>
@@ -48434,7 +48451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="165" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -48466,7 +48483,7 @@
         <v>41</v>
       </c>
       <c r="L165">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q165">
         <v>7964</v>
@@ -48578,7 +48595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -48610,7 +48627,7 @@
         <v>41</v>
       </c>
       <c r="L166">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q166">
         <v>7964</v>
@@ -48722,7 +48739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -48755,7 +48772,7 @@
         <v>41</v>
       </c>
       <c r="L167">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q167">
         <v>7964</v>
@@ -48867,7 +48884,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -48900,7 +48917,7 @@
         <v>41</v>
       </c>
       <c r="L168">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q168">
         <v>7964</v>
@@ -49012,7 +49029,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -49045,7 +49062,7 @@
         <v>41</v>
       </c>
       <c r="L169">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q169">
         <v>7964</v>
@@ -49157,7 +49174,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -49190,7 +49207,7 @@
         <v>41</v>
       </c>
       <c r="L170">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q170">
         <v>7964</v>
@@ -49302,7 +49319,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -49335,7 +49352,7 @@
         <v>41</v>
       </c>
       <c r="L171">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q171">
         <v>7964</v>
@@ -49447,7 +49464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -49480,7 +49497,7 @@
         <v>41</v>
       </c>
       <c r="L172">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q172">
         <v>7964</v>
@@ -49592,7 +49609,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -49625,7 +49642,7 @@
         <v>41</v>
       </c>
       <c r="L173">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q173">
         <v>7964</v>
@@ -49737,7 +49754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="174" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -49769,7 +49786,7 @@
         <v>41</v>
       </c>
       <c r="L174">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q174">
         <v>7964</v>
@@ -49884,7 +49901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -49916,7 +49933,7 @@
         <v>41</v>
       </c>
       <c r="L175">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q175">
         <v>7964</v>
@@ -50031,7 +50048,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -50063,7 +50080,7 @@
         <v>41</v>
       </c>
       <c r="L176">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q176">
         <v>7964</v>
@@ -50178,7 +50195,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="177" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -50210,7 +50227,7 @@
         <v>41</v>
       </c>
       <c r="L177">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q177">
         <v>7964</v>
@@ -50325,7 +50342,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="178" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -50357,7 +50374,7 @@
         <v>41</v>
       </c>
       <c r="L178">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q178">
         <v>7964</v>
@@ -50472,7 +50489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -50504,7 +50521,7 @@
         <v>41</v>
       </c>
       <c r="L179">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q179">
         <v>7964</v>
@@ -50632,15 +50649,15 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>317</v>
       </c>
@@ -50651,7 +50668,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -50671,7 +50688,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -50691,7 +50708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -50711,7 +50728,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>74</v>
       </c>
@@ -50719,7 +50736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -50727,7 +50744,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -50735,7 +50752,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -50743,7 +50760,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -50751,7 +50768,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -50759,7 +50776,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -50767,7 +50784,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -50775,7 +50792,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>349</v>
       </c>
@@ -50796,16 +50813,16 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.09765625" customWidth="1"/>
-    <col min="14" max="14" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -50826,7 +50843,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>39</v>
       </c>
@@ -50834,7 +50851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>39</v>
       </c>
@@ -50842,7 +50859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -50850,7 +50867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>39</v>
       </c>
@@ -50858,7 +50875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>39</v>
       </c>
@@ -50866,7 +50883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -50874,7 +50891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -50882,7 +50899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -50890,7 +50907,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>39</v>
       </c>
@@ -50898,7 +50915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -50906,7 +50923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>39</v>
       </c>
@@ -50914,7 +50931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>63</v>
       </c>
@@ -50922,7 +50939,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>63</v>
       </c>
@@ -50932,7 +50949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -50940,7 +50957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>69</v>
       </c>
@@ -50948,7 +50965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>69</v>
       </c>
@@ -50956,7 +50973,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>69</v>
       </c>
@@ -50964,7 +50981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>69</v>
       </c>
@@ -50975,7 +50992,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>69</v>
       </c>
@@ -50986,7 +51003,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>69</v>
       </c>
@@ -50997,7 +51014,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>71</v>
       </c>
@@ -51008,7 +51025,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>71</v>
       </c>
@@ -51019,7 +51036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>71</v>
       </c>
@@ -51027,7 +51044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>71</v>
       </c>
@@ -51035,7 +51052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>71</v>
       </c>
@@ -51043,7 +51060,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>71</v>
       </c>
@@ -51051,7 +51068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>71</v>
       </c>
@@ -51059,7 +51076,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -51067,7 +51084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>71</v>
       </c>
@@ -51075,7 +51092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>71</v>
       </c>
@@ -51083,7 +51100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>71</v>
       </c>
@@ -51091,7 +51108,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>71</v>
       </c>
@@ -51099,7 +51116,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>71</v>
       </c>
@@ -51107,7 +51124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>71</v>
       </c>
@@ -51115,7 +51132,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>77</v>
       </c>
@@ -51123,7 +51140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>77</v>
       </c>
@@ -51131,7 +51148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>77</v>
       </c>
@@ -51139,7 +51156,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>77</v>
       </c>
@@ -51147,7 +51164,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>77</v>
       </c>
@@ -51155,7 +51172,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>77</v>
       </c>
@@ -51163,7 +51180,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>77</v>
       </c>
@@ -51171,7 +51188,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>77</v>
       </c>
@@ -51179,7 +51196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>81</v>
       </c>
@@ -51187,7 +51204,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>81</v>
       </c>
@@ -51195,7 +51212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>81</v>
       </c>
@@ -51203,7 +51220,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>81</v>
       </c>
@@ -51211,7 +51228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>81</v>
       </c>
@@ -51219,7 +51236,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>81</v>
       </c>
@@ -51227,7 +51244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>81</v>
       </c>
@@ -51235,7 +51252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>81</v>
       </c>
@@ -51243,7 +51260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>85</v>
       </c>
@@ -51251,7 +51268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>85</v>
       </c>
@@ -51259,7 +51276,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>85</v>
       </c>
@@ -51267,7 +51284,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>85</v>
       </c>
@@ -51275,7 +51292,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>88</v>
       </c>
@@ -51283,7 +51300,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>92</v>
       </c>
@@ -51291,7 +51308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>92</v>
       </c>
@@ -51299,7 +51316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>96</v>
       </c>
@@ -51307,7 +51324,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>96</v>
       </c>
@@ -51315,7 +51332,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>96</v>
       </c>
@@ -51323,7 +51340,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>96</v>
       </c>
@@ -51331,7 +51348,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>96</v>
       </c>
@@ -51339,7 +51356,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>96</v>
       </c>
@@ -51347,7 +51364,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>96</v>
       </c>
@@ -51355,7 +51372,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>96</v>
       </c>
@@ -51363,7 +51380,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>96</v>
       </c>
@@ -51371,7 +51388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>96</v>
       </c>
@@ -51379,7 +51396,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>102</v>
       </c>
@@ -51388,7 +51405,7 @@
       </c>
       <c r="M69" s="19"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>102</v>
       </c>
@@ -51397,257 +51414,257 @@
       </c>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="21"/>
       <c r="C75" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="21"/>
       <c r="C76" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="21"/>
       <c r="C77" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="21"/>
       <c r="C78" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="21"/>
       <c r="C79" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>122</v>
       </c>
@@ -51655,7 +51672,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>125</v>
       </c>
@@ -51663,7 +51680,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>126</v>
       </c>
@@ -51671,7 +51688,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>127</v>
       </c>
@@ -51679,7 +51696,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>128</v>
       </c>
@@ -51687,277 +51704,277 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="19" t="s">
         <v>231</v>
       </c>
@@ -51973,7 +51990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51985,7 +52002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51999,13 +52016,13 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -52013,7 +52030,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -52021,7 +52038,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>166</v>
       </c>
@@ -52029,7 +52046,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -52037,7 +52054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -52045,7 +52062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -52053,7 +52070,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -52061,32 +52078,32 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -52094,63 +52111,63 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="28" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>169</v>
       </c>
@@ -52158,7 +52175,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>170</v>
       </c>
@@ -52166,12 +52183,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
@@ -52179,12 +52196,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>172</v>
       </c>
@@ -52192,7 +52209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -52200,7 +52217,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
@@ -52208,27 +52225,27 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>23</v>
       </c>
@@ -52236,12 +52253,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
@@ -52249,7 +52266,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>26</v>
       </c>
@@ -52257,17 +52274,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>182</v>
       </c>
@@ -52275,7 +52292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>29</v>
       </c>
@@ -52283,73 +52300,73 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="28" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="27"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="28"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>213</v>
       </c>
       <c r="B53" s="19"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>176</v>
       </c>
@@ -52357,95 +52374,95 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="26"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="25"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="26"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="25"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="26"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="25"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="26"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B71" s="25"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="26"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -52470,7 +52487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF234D-C67D-4942-A915-A9CF779F1C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65929DE2-E0FB-4257-ACC7-34ADAF5F7A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6255" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="411">
   <si>
     <t>solution.polymer.semiconductor.name</t>
   </si>
@@ -1122,9 +1122,6 @@
     <t>sam</t>
   </si>
   <si>
-    <t>parameters</t>
-  </si>
-  <si>
     <t>o2_plasma</t>
   </si>
   <si>
@@ -1135,9 +1132,6 @@
   </si>
   <si>
     <t>substrate_pretreat_step_id</t>
-  </si>
-  <si>
-    <t>film_deposition_Id</t>
   </si>
   <si>
     <t>film_deposition_id</t>
@@ -1255,6 +1249,42 @@
   </si>
   <si>
     <t>ofet.threshold_voltage_hole</t>
+  </si>
+  <si>
+    <t>solvent_id</t>
+  </si>
+  <si>
+    <t>wt_frac</t>
+  </si>
+  <si>
+    <t>solution_treatment.pubchem_cid</t>
+  </si>
+  <si>
+    <t>adhesion_layer</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>MoO3</t>
+  </si>
+  <si>
+    <t>sam_name</t>
+  </si>
+  <si>
+    <t>methyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>octadecyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>octyltrichlorosilane</t>
+  </si>
+  <si>
+    <t>decyltriethoxysilane</t>
+  </si>
+  <si>
+    <t>phenyltrichlorosilane</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1881,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1882,6 +1912,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2246,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR179"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -24830,8 +24861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40438717-6B4F-44B5-991F-449C968F6570}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24846,10 +24877,10 @@
         <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>341</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -24860,7 +24891,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -26116,14 +26147,14 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
@@ -26134,19 +26165,19 @@
       <c r="A1" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="23" t="s">
         <v>221</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -26158,10 +26189,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>281</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
       <c r="D2">
         <v>299</v>
@@ -26181,10 +26212,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>281</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="D3">
         <v>292.2</v>
@@ -26204,10 +26235,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
       <c r="D4">
         <v>91</v>
@@ -26227,10 +26258,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>281</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5">
         <v>344</v>
@@ -26250,10 +26281,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>281</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
       <c r="D6">
         <v>501</v>
@@ -26273,10 +26304,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>281</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7">
         <v>199</v>
@@ -26296,10 +26327,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8">
         <v>290</v>
@@ -26319,10 +26350,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>281</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -26342,10 +26373,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>281</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
       <c r="D10">
         <v>279</v>
@@ -26365,10 +26396,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>281</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11">
         <v>102</v>
@@ -26388,10 +26419,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>281</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
       <c r="D12">
         <v>250</v>
@@ -26404,11 +26435,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>281</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="24">
         <v>350</v>
@@ -26427,11 +26458,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>281</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="24">
         <v>50</v>
@@ -26451,10 +26482,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>281</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="E15">
         <v>106</v>
@@ -26468,10 +26499,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>281</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -26482,10 +26513,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>281</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
       <c r="D17">
         <v>104</v>
@@ -26505,10 +26536,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>281</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
       <c r="D18">
         <v>292</v>
@@ -26528,10 +26559,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>281</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
       </c>
       <c r="D19">
         <v>255</v>
@@ -26551,10 +26582,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>281</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
       </c>
       <c r="D20">
         <v>193.5</v>
@@ -26574,10 +26605,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>281</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
       <c r="D21">
         <v>54.79</v>
@@ -26597,10 +26628,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>281</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
       </c>
       <c r="D22">
         <v>250</v>
@@ -26620,10 +26651,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
         <v>281</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
       </c>
       <c r="D23">
         <v>204</v>
@@ -26643,10 +26674,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
         <v>281</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
       </c>
       <c r="D24">
         <v>110</v>
@@ -26666,10 +26697,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>281</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
       </c>
       <c r="D25">
         <v>152</v>
@@ -26689,10 +26720,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
         <v>339</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -26700,10 +26731,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>340</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
       <c r="D27">
         <v>2.2000000000000002</v>
@@ -26717,10 +26748,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
         <v>340</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
       <c r="D28">
         <v>19.7</v>
@@ -26734,10 +26765,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>340</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
       </c>
       <c r="D29">
         <v>97.1</v>
@@ -26751,10 +26782,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
         <v>340</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
       </c>
       <c r="D30">
         <v>301.60000000000002</v>
@@ -26768,10 +26799,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>340</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
       </c>
       <c r="D31">
         <v>280</v>
@@ -26781,11 +26812,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>340</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="21" t="s">
         <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>338</v>
       </c>
       <c r="D32" s="21"/>
       <c r="F32" s="21"/>
@@ -26796,10 +26827,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
         <v>337</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -26807,10 +26838,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>340</v>
       </c>
       <c r="D34">
         <v>35</v>
@@ -26875,7 +26906,7 @@
         <v>351</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C1" t="s">
         <v>353</v>
@@ -26904,10 +26935,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1F663-9F56-4E39-9F36-D3287E533545}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26915,10 +26946,10 @@
     <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>353</v>
       </c>
@@ -26929,25 +26960,31 @@
         <v>296</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3">
+        <v>887</v>
+      </c>
+      <c r="E3" s="25">
         <v>0.15</v>
       </c>
     </row>
@@ -26961,30 +26998,32 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="C1" s="8" t="s">
         <v>224</v>
       </c>
@@ -27001,33 +27040,32 @@
         <v>227</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>_xlfn.CONCAT(C3:L3)</f>
-        <v>n-doped SiSiO2300AuBGTC80150010</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>299</v>
@@ -27038,17 +27076,14 @@
       <c r="E3">
         <v>300</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>80</v>
-      </c>
-      <c r="K3">
-        <v>1500</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -27056,11 +27091,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>_xlfn.CONCAT(C4:L4)</f>
-        <v>n-doped SiSiO2300Au/CrBGBC50200011.5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>299</v>
@@ -27071,17 +27105,17 @@
       <c r="E4">
         <v>300</v>
       </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4">
+      <c r="H4">
         <v>50</v>
       </c>
-      <c r="K4">
+      <c r="I4">
         <v>2000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>403</v>
       </c>
       <c r="L4">
         <v>11.5</v>
@@ -27089,11 +27123,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B28" si="0">_xlfn.CONCAT(C5:L5)</f>
-        <v>n-doped SiSiO2200AuBGTC100400017.25</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>299</v>
@@ -27104,17 +27137,14 @@
       <c r="E5">
         <v>200</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>4000</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>4000</v>
       </c>
       <c r="L5">
         <v>17.25</v>
@@ -27122,11 +27152,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2200AuBGTC125400017.25</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>299</v>
@@ -27137,17 +27166,14 @@
       <c r="E6">
         <v>200</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>125</v>
+      </c>
+      <c r="I6">
+        <v>4000</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6">
-        <v>125</v>
-      </c>
-      <c r="K6">
-        <v>4000</v>
       </c>
       <c r="L6">
         <v>17.25</v>
@@ -27155,11 +27181,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGBC30140011</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>299</v>
@@ -27170,17 +27195,14 @@
       <c r="E7">
         <v>300</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>1400</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>1400</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -27188,11 +27210,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGBC40140011</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>299</v>
@@ -27203,17 +27224,14 @@
       <c r="E8">
         <v>300</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>1400</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>1400</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -27221,11 +27239,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGBC50140011</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>299</v>
@@ -27236,17 +27253,14 @@
       <c r="E9">
         <v>300</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>1400</v>
+      </c>
+      <c r="J9" t="s">
         <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9">
-        <v>1400</v>
       </c>
       <c r="L9">
         <v>11</v>
@@ -27254,11 +27268,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2200AuBGTC125140017.25</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>299</v>
@@ -27269,17 +27282,14 @@
       <c r="E10">
         <v>200</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>125</v>
+      </c>
+      <c r="I10">
+        <v>1400</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10">
-        <v>125</v>
-      </c>
-      <c r="K10">
-        <v>1400</v>
       </c>
       <c r="L10">
         <v>17.25</v>
@@ -27287,11 +27297,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>PETPAN800PMSQ50AuBGBC70700011.5</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -27308,17 +27317,14 @@
       <c r="G11">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>7000</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11">
-        <v>70</v>
-      </c>
-      <c r="K11">
-        <v>7000</v>
       </c>
       <c r="L11">
         <v>11.5</v>
@@ -27326,11 +27332,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2350AuBGTC80150011.5</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>299</v>
@@ -27341,17 +27346,14 @@
       <c r="E12">
         <v>350</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12" t="s">
         <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12">
-        <v>80</v>
-      </c>
-      <c r="K12">
-        <v>1500</v>
       </c>
       <c r="L12">
         <v>11.5</v>
@@ -27359,11 +27361,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSi3N4AuBGBC120300015</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>299</v>
@@ -27371,17 +27372,14 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>3000</v>
+      </c>
+      <c r="J13" t="s">
         <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13">
-        <v>120</v>
-      </c>
-      <c r="K13">
-        <v>3000</v>
       </c>
       <c r="L13">
         <v>15</v>
@@ -27389,11 +27387,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2220AgBGTC3010007.3</v>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>299</v>
@@ -27404,17 +27401,14 @@
       <c r="E14">
         <v>220</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>1000</v>
       </c>
       <c r="L14">
         <v>7.3</v>
@@ -27422,11 +27416,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSi3N4400PMMAAu/MoO3BGTC120300010</v>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>299</v>
@@ -27440,17 +27433,17 @@
       <c r="F15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15">
+      <c r="H15">
         <v>120</v>
       </c>
-      <c r="K15">
+      <c r="I15">
         <v>3000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>404</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -27458,11 +27451,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2200Au/CrBGBC1001000</v>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>299</v>
@@ -27473,26 +27465,25 @@
       <c r="E16">
         <v>200</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16">
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="K16">
+      <c r="I16">
         <v>1000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300Ag/MoO3BGTC4080011</v>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>299</v>
@@ -27503,17 +27494,17 @@
       <c r="E17">
         <v>300</v>
       </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17">
+      <c r="H17">
         <v>40</v>
       </c>
-      <c r="K17">
+      <c r="I17">
         <v>800</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>404</v>
       </c>
       <c r="L17">
         <v>11</v>
@@ -27521,11 +27512,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>glass6FDA-DABC143AuBGTC5010000.196</v>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
@@ -27536,17 +27526,14 @@
       <c r="E18">
         <v>143</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="s">
         <v>38</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>1000</v>
       </c>
       <c r="L18">
         <v>0.19600000000000001</v>
@@ -27554,11 +27541,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>glass6FDA-DABC77AuBGTC5010000.354</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>126</v>
@@ -27569,17 +27555,14 @@
       <c r="E19">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19" t="s">
         <v>38</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19">
-        <v>50</v>
-      </c>
-      <c r="K19">
-        <v>1000</v>
       </c>
       <c r="L19">
         <v>0.35399999999999998</v>
@@ -27587,44 +27570,40 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSi3N4400PMMA150AuBGTC</v>
-      </c>
-      <c r="C20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="24">
         <v>400</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="24">
         <v>150</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGBC101500010.5</v>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>299</v>
@@ -27635,17 +27614,14 @@
       <c r="E21">
         <v>300</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>15000</v>
+      </c>
+      <c r="J21" t="s">
         <v>38</v>
-      </c>
-      <c r="I21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>15000</v>
       </c>
       <c r="L21">
         <v>10.5</v>
@@ -27653,11 +27629,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>glassPVP430AuBGTC5010008.5</v>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>126</v>
@@ -27668,17 +27643,14 @@
       <c r="E22">
         <v>430</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="s">
         <v>38</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22">
-        <v>50</v>
-      </c>
-      <c r="K22">
-        <v>1000</v>
       </c>
       <c r="L22">
         <v>8.5</v>
@@ -27686,11 +27658,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>glassShellac320AuBGTC5010009.36</v>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>126</v>
@@ -27701,17 +27672,14 @@
       <c r="E23">
         <v>320</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="s">
         <v>38</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>1000</v>
       </c>
       <c r="L23">
         <v>9.36</v>
@@ -27719,11 +27687,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGTC70450011</v>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>299</v>
@@ -27734,17 +27701,14 @@
       <c r="E24">
         <v>300</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>4500</v>
+      </c>
+      <c r="J24" t="s">
         <v>38</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>4500</v>
       </c>
       <c r="L24">
         <v>11</v>
@@ -27752,11 +27716,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiCYTOP447AuTGBC7045004.2</v>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
       </c>
       <c r="C25" t="s">
         <v>299</v>
@@ -27767,17 +27730,14 @@
       <c r="E25">
         <v>447</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <v>4500</v>
+      </c>
+      <c r="J25" t="s">
         <v>38</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25">
-        <v>70</v>
-      </c>
-      <c r="K25">
-        <v>4500</v>
       </c>
       <c r="L25">
         <v>4.2</v>
@@ -27785,11 +27745,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AuBGBC80880011</v>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>299</v>
@@ -27800,17 +27759,14 @@
       <c r="E26">
         <v>300</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>8800</v>
+      </c>
+      <c r="J26" t="s">
         <v>38</v>
-      </c>
-      <c r="I26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26">
-        <v>80</v>
-      </c>
-      <c r="K26">
-        <v>8800</v>
       </c>
       <c r="L26">
         <v>11</v>
@@ -27818,11 +27774,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>glassPMMA550AuTGBC20100006.2</v>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
@@ -27833,17 +27788,14 @@
       <c r="E27">
         <v>550</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>10000</v>
+      </c>
+      <c r="J27" t="s">
         <v>38</v>
-      </c>
-      <c r="I27" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27">
-        <v>20</v>
-      </c>
-      <c r="K27">
-        <v>10000</v>
       </c>
       <c r="L27">
         <v>6.2</v>
@@ -27851,11 +27803,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>n-doped SiSiO2300AgBGTC52440011</v>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>299</v>
@@ -27866,17 +27817,14 @@
       <c r="E28">
         <v>300</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <v>4400</v>
+      </c>
+      <c r="J28" t="s">
         <v>79</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>4400</v>
       </c>
       <c r="L28">
         <v>11</v>
@@ -27884,6 +27832,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27909,7 +27858,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -27999,13 +27948,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>359</v>
-      </c>
-      <c r="C1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -28218,10 +28167,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62111A9-EB5F-47C1-B7F6-2378F59389AF}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28229,20 +28178,28 @@
     <col min="1" max="1" width="23.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
         <v>354</v>
       </c>
-      <c r="C1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28252,8 +28209,14 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28263,8 +28226,14 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28274,8 +28243,14 @@
       <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28285,8 +28260,14 @@
       <c r="C5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5">
+        <v>8157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28296,13 +28277,19 @@
       <c r="C6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6">
+        <v>76261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -28315,7 +28302,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28333,35 +28320,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -28983,7 +28970,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -29106,7 +29093,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29118,13 +29105,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -29372,7 +29359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACDC457-8A4B-48E4-A1DB-FB5238951F33}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -29386,20 +29373,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>354</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29412,7 +29399,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
         <v>318</v>
@@ -29423,7 +29410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C4">
         <v>160</v>
@@ -29440,7 +29427,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C5">
         <v>160</v>
@@ -29457,7 +29444,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6">
         <v>160</v>
@@ -29474,7 +29461,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C7">
         <v>160</v>
@@ -29488,7 +29475,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -29505,7 +29492,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C9">
         <v>65</v>
@@ -29519,7 +29506,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -29533,7 +29520,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C11">
         <v>150</v>
@@ -29547,7 +29534,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -29564,7 +29551,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -29578,7 +29565,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -29589,7 +29576,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -29606,7 +29593,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -29623,7 +29610,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C17">
         <v>135</v>
@@ -29640,7 +29627,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C18">
         <v>200</v>
@@ -29657,7 +29644,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -29671,7 +29658,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C20">
         <v>56</v>
@@ -29688,7 +29675,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -29705,7 +29692,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C22">
         <v>200</v>
@@ -29722,7 +29709,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C23">
         <v>320</v>
@@ -29743,10 +29730,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD7F2B-F87D-406C-848F-DAA215CB48D5}">
   <dimension ref="A1:CC179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29957,13 +29944,13 @@
         <v>233</v>
       </c>
       <c r="AS1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AT1" s="8" t="s">
         <v>300</v>
       </c>
       <c r="AU1" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AV1" s="9" t="s">
         <v>301</v>
@@ -29993,7 +29980,7 @@
         <v>313</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="BF1" s="10" t="s">
         <v>314</v>
@@ -30041,10 +30028,10 @@
         <v>330</v>
       </c>
       <c r="BU1" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BV1" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>331</v>
@@ -30062,7 +30049,7 @@
         <v>334</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="CC1" t="s">
         <v>182</v>
@@ -30194,7 +30181,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="CB2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -30326,7 +30313,7 @@
         <v>2.6</v>
       </c>
       <c r="CB3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -30458,7 +30445,7 @@
         <v>2.4</v>
       </c>
       <c r="CB4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
@@ -30590,7 +30577,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="CB5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.25">
@@ -30722,7 +30709,7 @@
         <v>3</v>
       </c>
       <c r="CB6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
@@ -30854,7 +30841,7 @@
         <v>3.3</v>
       </c>
       <c r="CB7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
@@ -30986,7 +30973,7 @@
         <v>5.7</v>
       </c>
       <c r="CB8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.25">
@@ -31118,7 +31105,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="CB9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
@@ -31250,7 +31237,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="CB10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.25">
@@ -31382,7 +31369,7 @@
         <v>2.1</v>
       </c>
       <c r="CB11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
@@ -31514,7 +31501,7 @@
         <v>2.1</v>
       </c>
       <c r="CB12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.25">
@@ -31649,7 +31636,7 @@
         <v>-80</v>
       </c>
       <c r="CB13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.25">
@@ -31696,7 +31683,7 @@
         <v>25</v>
       </c>
       <c r="Q14" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R14,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R14,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R14" t="s">
@@ -31797,7 +31784,7 @@
         <v>-80</v>
       </c>
       <c r="CB14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.25">
@@ -31844,7 +31831,7 @@
         <v>25</v>
       </c>
       <c r="Q15" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R15,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R15,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R15" t="s">
@@ -31942,7 +31929,7 @@
         <v>-80</v>
       </c>
       <c r="CB15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.25">
@@ -31989,7 +31976,7 @@
         <v>25</v>
       </c>
       <c r="Q16" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R16,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R16,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R16" t="s">
@@ -32087,7 +32074,7 @@
         <v>-80</v>
       </c>
       <c r="CB16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:80" x14ac:dyDescent="0.25">
@@ -32134,7 +32121,7 @@
         <v>25</v>
       </c>
       <c r="Q17" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R17,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R17,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R17" t="s">
@@ -32232,7 +32219,7 @@
         <v>-80</v>
       </c>
       <c r="CB17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:80" x14ac:dyDescent="0.25">
@@ -32279,7 +32266,7 @@
         <v>25</v>
       </c>
       <c r="Q18" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R18,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R18,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R18" t="s">
@@ -32377,7 +32364,7 @@
         <v>-80</v>
       </c>
       <c r="CB18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:80" x14ac:dyDescent="0.25">
@@ -32424,7 +32411,7 @@
         <v>25</v>
       </c>
       <c r="Q19" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R19,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R19,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R19" t="s">
@@ -32522,7 +32509,7 @@
         <v>-80</v>
       </c>
       <c r="CB19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:80" x14ac:dyDescent="0.25">
@@ -32569,7 +32556,7 @@
         <v>25</v>
       </c>
       <c r="Q20" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R20,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R20,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R20" t="s">
@@ -32667,7 +32654,7 @@
         <v>-80</v>
       </c>
       <c r="CB20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.25">
@@ -32714,7 +32701,7 @@
         <v>25</v>
       </c>
       <c r="Q21" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R21,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R21,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(dimethylsiloxane)</v>
       </c>
       <c r="R21" t="s">
@@ -32812,7 +32799,7 @@
         <v>-80</v>
       </c>
       <c r="CB21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:80" x14ac:dyDescent="0.25">
@@ -33259,7 +33246,7 @@
         <v>-60</v>
       </c>
       <c r="CB25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:80" x14ac:dyDescent="0.25">
@@ -33409,7 +33396,7 @@
         <v>-60</v>
       </c>
       <c r="CB26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:80" x14ac:dyDescent="0.25">
@@ -33559,7 +33546,7 @@
         <v>-80</v>
       </c>
       <c r="CB27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:80" x14ac:dyDescent="0.25">
@@ -33709,7 +33696,7 @@
         <v>-80</v>
       </c>
       <c r="CB28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:80" x14ac:dyDescent="0.25">
@@ -33859,7 +33846,7 @@
         <v>-80</v>
       </c>
       <c r="CB29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:80" x14ac:dyDescent="0.25">
@@ -34010,7 +33997,7 @@
         <v>-40</v>
       </c>
       <c r="CB30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:80" x14ac:dyDescent="0.25">
@@ -34161,7 +34148,7 @@
         <v>-40</v>
       </c>
       <c r="CB31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:80" x14ac:dyDescent="0.25">
@@ -34312,7 +34299,7 @@
         <v>-40</v>
       </c>
       <c r="CB32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.25">
@@ -34459,7 +34446,7 @@
         <v>-60</v>
       </c>
       <c r="CB33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:80" x14ac:dyDescent="0.25">
@@ -34606,7 +34593,7 @@
         <v>-60</v>
       </c>
       <c r="CB34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:80" x14ac:dyDescent="0.25">
@@ -34762,7 +34749,7 @@
         <v>-60</v>
       </c>
       <c r="CB35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:80" x14ac:dyDescent="0.25">
@@ -34906,7 +34893,7 @@
         <v>319</v>
       </c>
       <c r="CB36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:80" x14ac:dyDescent="0.25">
@@ -34953,7 +34940,7 @@
         <v>26</v>
       </c>
       <c r="Q37" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R37,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R37,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R37" t="s">
@@ -35063,7 +35050,7 @@
         <v>319</v>
       </c>
       <c r="CB37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:80" x14ac:dyDescent="0.25">
@@ -35110,7 +35097,7 @@
         <v>26</v>
       </c>
       <c r="Q38" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R38,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R38,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R38" t="s">
@@ -35223,7 +35210,7 @@
         <v>319</v>
       </c>
       <c r="CB38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.25">
@@ -35270,7 +35257,7 @@
         <v>26</v>
       </c>
       <c r="Q39" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R39,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R39,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R39" t="s">
@@ -35380,7 +35367,7 @@
         <v>319</v>
       </c>
       <c r="CB39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:80" x14ac:dyDescent="0.25">
@@ -35427,7 +35414,7 @@
         <v>26</v>
       </c>
       <c r="Q40" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R40,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R40,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R40" t="s">
@@ -35537,7 +35524,7 @@
         <v>319</v>
       </c>
       <c r="CB40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:80" x14ac:dyDescent="0.25">
@@ -35584,7 +35571,7 @@
         <v>27</v>
       </c>
       <c r="Q41" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R41,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R41,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R41" t="s">
@@ -35688,7 +35675,7 @@
         <v>319</v>
       </c>
       <c r="CB41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.25">
@@ -35735,7 +35722,7 @@
         <v>28</v>
       </c>
       <c r="Q42" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R42,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R42,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R42" t="s">
@@ -35839,7 +35826,7 @@
         <v>319</v>
       </c>
       <c r="CB42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:80" x14ac:dyDescent="0.25">
@@ -35886,7 +35873,7 @@
         <v>29</v>
       </c>
       <c r="Q43" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R43,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R43,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R43" t="s">
@@ -35990,7 +35977,7 @@
         <v>319</v>
       </c>
       <c r="CB43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.25">
@@ -36116,7 +36103,7 @@
         <v>-60</v>
       </c>
       <c r="CB44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:80" x14ac:dyDescent="0.25">
@@ -36245,7 +36232,7 @@
         <v>-60</v>
       </c>
       <c r="CB45" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:80" x14ac:dyDescent="0.25">
@@ -36374,7 +36361,7 @@
         <v>-60</v>
       </c>
       <c r="CB46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:80" x14ac:dyDescent="0.25">
@@ -36503,7 +36490,7 @@
         <v>-60</v>
       </c>
       <c r="CB47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.25">
@@ -36629,7 +36616,7 @@
         <v>-10</v>
       </c>
       <c r="CB48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
@@ -36758,7 +36745,7 @@
         <v>-10</v>
       </c>
       <c r="CB49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
@@ -36887,7 +36874,7 @@
         <v>-10</v>
       </c>
       <c r="CB50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
@@ -37016,7 +37003,7 @@
         <v>-10</v>
       </c>
       <c r="CB51" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
@@ -37179,7 +37166,7 @@
         <v>-30</v>
       </c>
       <c r="CB52" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
@@ -37336,7 +37323,7 @@
         <v>-30</v>
       </c>
       <c r="CB53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
@@ -37499,7 +37486,7 @@
         <v>-30</v>
       </c>
       <c r="CB54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.25">
@@ -37665,7 +37652,7 @@
         <v>-30</v>
       </c>
       <c r="CB55" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
@@ -37809,7 +37796,7 @@
         <v>-80</v>
       </c>
       <c r="CB56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
@@ -37941,7 +37928,7 @@
         <v>321</v>
       </c>
       <c r="CB57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
@@ -38079,7 +38066,7 @@
         <v>321</v>
       </c>
       <c r="CB58" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
@@ -38227,7 +38214,7 @@
         <v>321</v>
       </c>
       <c r="CB59" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
@@ -38375,7 +38362,7 @@
         <v>321</v>
       </c>
       <c r="CB60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
@@ -38523,7 +38510,7 @@
         <v>321</v>
       </c>
       <c r="CB61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
@@ -38671,7 +38658,7 @@
         <v>321</v>
       </c>
       <c r="CB62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
@@ -38819,7 +38806,7 @@
         <v>321</v>
       </c>
       <c r="CB63" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
@@ -38967,7 +38954,7 @@
         <v>321</v>
       </c>
       <c r="CB64" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:81" x14ac:dyDescent="0.25">
@@ -39115,7 +39102,7 @@
         <v>321</v>
       </c>
       <c r="CB65" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:81" x14ac:dyDescent="0.25">
@@ -39263,7 +39250,7 @@
         <v>321</v>
       </c>
       <c r="CB66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:81" x14ac:dyDescent="0.25">
@@ -39411,7 +39398,7 @@
         <v>321</v>
       </c>
       <c r="CB67" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:81" x14ac:dyDescent="0.25">
@@ -39559,7 +39546,7 @@
         <v>321</v>
       </c>
       <c r="CB68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:81" x14ac:dyDescent="0.25">
@@ -39700,7 +39687,7 @@
         <v>-10</v>
       </c>
       <c r="CB69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:81" x14ac:dyDescent="0.25">
@@ -39741,7 +39728,7 @@
         <v>30</v>
       </c>
       <c r="Q70" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R70,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R70,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R70" t="s">
@@ -39857,7 +39844,7 @@
         <v>-10</v>
       </c>
       <c r="CB70" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:81" x14ac:dyDescent="0.25">
@@ -39898,7 +39885,7 @@
         <v>30</v>
       </c>
       <c r="Q71" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R71,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R71,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R71" t="s">
@@ -40014,7 +40001,7 @@
         <v>-5</v>
       </c>
       <c r="CB71" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CC71" t="s">
         <v>205</v>
@@ -40058,7 +40045,7 @@
         <v>30</v>
       </c>
       <c r="Q72" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R72,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R72,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R72" t="s">
@@ -40174,7 +40161,7 @@
         <v>-5</v>
       </c>
       <c r="CB72" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CC72" t="s">
         <v>206</v>
@@ -40218,7 +40205,7 @@
         <v>30</v>
       </c>
       <c r="Q73" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R73,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R73,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R73" t="s">
@@ -40331,7 +40318,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB73" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CC73" t="s">
         <v>205</v>
@@ -40375,7 +40362,7 @@
         <v>30</v>
       </c>
       <c r="Q74" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R74,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R74,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R74" t="s">
@@ -40488,7 +40475,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB74" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CC74" t="s">
         <v>206</v>
@@ -40667,7 +40654,7 @@
         <v>-100</v>
       </c>
       <c r="CB75" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CC75" s="21"/>
     </row>
@@ -40836,7 +40823,7 @@
         <v>-100</v>
       </c>
       <c r="CB76" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CC76" s="21"/>
     </row>
@@ -41013,7 +41000,7 @@
         <v>-100</v>
       </c>
       <c r="CB77" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CC77" s="21"/>
     </row>
@@ -41062,8 +41049,8 @@
         <v>31</v>
       </c>
       <c r="Q78" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R78,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
-        <v>poly(styrene)</v>
+        <f>_xlfn.XLOOKUP('all joined'!R78,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
+        <v>phenyl-C70-butyric acid methyl ester</v>
       </c>
       <c r="R78" s="21" t="s">
         <v>102</v>
@@ -41195,7 +41182,7 @@
         <v>-100</v>
       </c>
       <c r="CB78" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CC78" s="21"/>
     </row>
@@ -41244,8 +41231,8 @@
         <v>31</v>
       </c>
       <c r="Q79" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R79,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
-        <v>poly(styrene)</v>
+        <f>_xlfn.XLOOKUP('all joined'!R79,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
+        <v>phenyl-C70-butyric acid methyl ester</v>
       </c>
       <c r="R79" s="21" t="s">
         <v>102</v>
@@ -41381,7 +41368,7 @@
         <v>-100</v>
       </c>
       <c r="CB79" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="CC79" s="21"/>
     </row>
@@ -41423,7 +41410,7 @@
         <v>32</v>
       </c>
       <c r="Q80" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R80,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R80,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>phenyl-C61-butyric acid methyl ester</v>
       </c>
       <c r="R80" t="s">
@@ -41509,7 +41496,7 @@
         <v>-40</v>
       </c>
       <c r="CB80" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:80" x14ac:dyDescent="0.25">
@@ -41550,7 +41537,7 @@
         <v>32</v>
       </c>
       <c r="Q81" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R81,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R81,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>phenyl-C61-butyric acid methyl ester</v>
       </c>
       <c r="R81" t="s">
@@ -41639,7 +41626,7 @@
         <v>-40</v>
       </c>
       <c r="CB81" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:80" x14ac:dyDescent="0.25">
@@ -41759,7 +41746,7 @@
         <v>-60</v>
       </c>
       <c r="CB82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:80" x14ac:dyDescent="0.25">
@@ -41879,7 +41866,7 @@
         <v>-60</v>
       </c>
       <c r="CB83" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:80" x14ac:dyDescent="0.25">
@@ -42020,7 +42007,7 @@
         <v>-100</v>
       </c>
       <c r="CB84" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="1:80" x14ac:dyDescent="0.25">
@@ -42161,7 +42148,7 @@
         <v>-100</v>
       </c>
       <c r="CB85" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:80" x14ac:dyDescent="0.25">
@@ -42302,7 +42289,7 @@
         <v>-100</v>
       </c>
       <c r="CB86" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:80" x14ac:dyDescent="0.25">
@@ -42443,7 +42430,7 @@
         <v>-100</v>
       </c>
       <c r="CB87" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:80" x14ac:dyDescent="0.25">
@@ -42584,7 +42571,7 @@
         <v>-100</v>
       </c>
       <c r="CB88" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:80" x14ac:dyDescent="0.25">
@@ -42725,7 +42712,7 @@
         <v>-100</v>
       </c>
       <c r="CB89" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:80" x14ac:dyDescent="0.25">
@@ -42866,7 +42853,7 @@
         <v>-100</v>
       </c>
       <c r="CB90" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:80" x14ac:dyDescent="0.25">
@@ -43007,7 +42994,7 @@
         <v>-100</v>
       </c>
       <c r="CB91" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:80" x14ac:dyDescent="0.25">
@@ -43148,7 +43135,7 @@
         <v>-100</v>
       </c>
       <c r="CB92" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:80" x14ac:dyDescent="0.25">
@@ -43289,7 +43276,7 @@
         <v>-100</v>
       </c>
       <c r="CB93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:80" x14ac:dyDescent="0.25">
@@ -43430,7 +43417,7 @@
         <v>-100</v>
       </c>
       <c r="CB94" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:80" x14ac:dyDescent="0.25">
@@ -43571,7 +43558,7 @@
         <v>-100</v>
       </c>
       <c r="CB95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:80" x14ac:dyDescent="0.25">
@@ -43712,7 +43699,7 @@
         <v>-100</v>
       </c>
       <c r="CB96" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:80" x14ac:dyDescent="0.25">
@@ -43853,7 +43840,7 @@
         <v>-100</v>
       </c>
       <c r="CB97" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:80" x14ac:dyDescent="0.25">
@@ -43994,7 +43981,7 @@
         <v>-100</v>
       </c>
       <c r="CB98" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:80" x14ac:dyDescent="0.25">
@@ -44135,7 +44122,7 @@
         <v>-100</v>
       </c>
       <c r="CB99" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:80" x14ac:dyDescent="0.25">
@@ -44276,7 +44263,7 @@
         <v>-100</v>
       </c>
       <c r="CB100" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:80" x14ac:dyDescent="0.25">
@@ -44417,7 +44404,7 @@
         <v>-100</v>
       </c>
       <c r="CB101" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:80" x14ac:dyDescent="0.25">
@@ -44561,7 +44548,7 @@
         <v>-60</v>
       </c>
       <c r="CB102" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:80" x14ac:dyDescent="0.25">
@@ -44705,7 +44692,7 @@
         <v>-60</v>
       </c>
       <c r="CB103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:80" x14ac:dyDescent="0.25">
@@ -44849,7 +44836,7 @@
         <v>-60</v>
       </c>
       <c r="CB104" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:80" x14ac:dyDescent="0.25">
@@ -44993,7 +44980,7 @@
         <v>-60</v>
       </c>
       <c r="CB105" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="106" spans="1:80" x14ac:dyDescent="0.25">
@@ -45137,7 +45124,7 @@
         <v>-60</v>
       </c>
       <c r="CB106" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.25">
@@ -45281,7 +45268,7 @@
         <v>-60</v>
       </c>
       <c r="CB107" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:80" x14ac:dyDescent="0.25">
@@ -45425,7 +45412,7 @@
         <v>-60</v>
       </c>
       <c r="CB108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:80" x14ac:dyDescent="0.25">
@@ -45569,7 +45556,7 @@
         <v>-60</v>
       </c>
       <c r="CB109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:80" x14ac:dyDescent="0.25">
@@ -45713,7 +45700,7 @@
         <v>-60</v>
       </c>
       <c r="CB110" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:80" x14ac:dyDescent="0.25">
@@ -45857,7 +45844,7 @@
         <v>-60</v>
       </c>
       <c r="CB111" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:80" x14ac:dyDescent="0.25">
@@ -46001,7 +45988,7 @@
         <v>-60</v>
       </c>
       <c r="CB112" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:81" x14ac:dyDescent="0.25">
@@ -46145,7 +46132,7 @@
         <v>-60</v>
       </c>
       <c r="CB113" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:81" x14ac:dyDescent="0.25">
@@ -46289,7 +46276,7 @@
         <v>-60</v>
       </c>
       <c r="CB114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:81" x14ac:dyDescent="0.25">
@@ -46433,7 +46420,7 @@
         <v>-60</v>
       </c>
       <c r="CB115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:81" x14ac:dyDescent="0.25">
@@ -46577,7 +46564,7 @@
         <v>-60</v>
       </c>
       <c r="CB116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:81" x14ac:dyDescent="0.25">
@@ -46721,7 +46708,7 @@
         <v>-60</v>
       </c>
       <c r="CB117" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:81" x14ac:dyDescent="0.25">
@@ -46865,7 +46852,7 @@
         <v>-60</v>
       </c>
       <c r="CB118" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:81" x14ac:dyDescent="0.25">
@@ -47009,7 +46996,7 @@
         <v>-60</v>
       </c>
       <c r="CB119" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:81" x14ac:dyDescent="0.25">
@@ -47172,7 +47159,7 @@
         <v>-80</v>
       </c>
       <c r="CB120" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC120" t="s">
         <v>117</v>
@@ -47350,7 +47337,7 @@
         <v>-80</v>
       </c>
       <c r="CB121" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC121" t="s">
         <v>117</v>
@@ -47528,7 +47515,7 @@
         <v>-80</v>
       </c>
       <c r="CB122" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC122" t="s">
         <v>117</v>
@@ -47706,7 +47693,7 @@
         <v>-80</v>
       </c>
       <c r="CB123" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC123" t="s">
         <v>117</v>
@@ -47884,7 +47871,7 @@
         <v>-80</v>
       </c>
       <c r="CB124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC124" t="s">
         <v>117</v>
@@ -48028,7 +48015,7 @@
         <v>-60</v>
       </c>
       <c r="CB125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:81" x14ac:dyDescent="0.25">
@@ -48178,7 +48165,7 @@
         <v>321</v>
       </c>
       <c r="CB126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="1:81" x14ac:dyDescent="0.25">
@@ -48328,7 +48315,7 @@
         <v>321</v>
       </c>
       <c r="CB127" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:81" x14ac:dyDescent="0.25">
@@ -48484,7 +48471,7 @@
         <v>321</v>
       </c>
       <c r="CB128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:81" x14ac:dyDescent="0.25">
@@ -48637,7 +48624,7 @@
         <v>321</v>
       </c>
       <c r="CB129" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:81" x14ac:dyDescent="0.25">
@@ -48787,7 +48774,7 @@
         <v>321</v>
       </c>
       <c r="CB130" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:81" x14ac:dyDescent="0.25">
@@ -48937,7 +48924,7 @@
         <v>321</v>
       </c>
       <c r="CB131" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:81" x14ac:dyDescent="0.25">
@@ -49087,7 +49074,7 @@
         <v>321</v>
       </c>
       <c r="CB132" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:81" x14ac:dyDescent="0.25">
@@ -49237,7 +49224,7 @@
         <v>321</v>
       </c>
       <c r="CB133" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="1:81" x14ac:dyDescent="0.25">
@@ -49387,7 +49374,7 @@
         <v>321</v>
       </c>
       <c r="CB134" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="1:81" x14ac:dyDescent="0.25">
@@ -49537,7 +49524,7 @@
         <v>321</v>
       </c>
       <c r="CB135" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:81" x14ac:dyDescent="0.25">
@@ -49672,7 +49659,7 @@
         <v>-60</v>
       </c>
       <c r="CB136" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:81" x14ac:dyDescent="0.25">
@@ -49826,7 +49813,7 @@
         <v>-80</v>
       </c>
       <c r="CB137" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC137" t="s">
         <v>117</v>
@@ -49983,7 +49970,7 @@
         <v>-80</v>
       </c>
       <c r="CB138" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC138" t="s">
         <v>117</v>
@@ -50140,7 +50127,7 @@
         <v>-80</v>
       </c>
       <c r="CB139" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC139" t="s">
         <v>117</v>
@@ -50294,7 +50281,7 @@
         <v>-80</v>
       </c>
       <c r="CB140" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC140" t="s">
         <v>117</v>
@@ -50451,7 +50438,7 @@
         <v>-80</v>
       </c>
       <c r="CB141" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC141" t="s">
         <v>117</v>
@@ -50605,7 +50592,7 @@
         <v>-80</v>
       </c>
       <c r="CB142" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC142" t="s">
         <v>117</v>
@@ -50759,7 +50746,7 @@
         <v>-80</v>
       </c>
       <c r="CB143" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC143" t="s">
         <v>117</v>
@@ -50913,7 +50900,7 @@
         <v>-80</v>
       </c>
       <c r="CB144" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC144" t="s">
         <v>117</v>
@@ -51070,7 +51057,7 @@
         <v>-80</v>
       </c>
       <c r="CB145" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC145" t="s">
         <v>117</v>
@@ -51124,7 +51111,7 @@
         <v>33</v>
       </c>
       <c r="Q146" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R146,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R146,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R146" t="s">
@@ -51243,7 +51230,7 @@
         <v>-80</v>
       </c>
       <c r="CB146" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC146" t="s">
         <v>141</v>
@@ -51297,7 +51284,7 @@
         <v>33</v>
       </c>
       <c r="Q147" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R147,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R147,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R147" t="s">
@@ -51416,7 +51403,7 @@
         <v>-80</v>
       </c>
       <c r="CB147" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC147" t="s">
         <v>141</v>
@@ -51470,7 +51457,7 @@
         <v>33</v>
       </c>
       <c r="Q148" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R148,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R148,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R148" t="s">
@@ -51589,7 +51576,7 @@
         <v>-80</v>
       </c>
       <c r="CB148" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC148" t="s">
         <v>144</v>
@@ -51643,7 +51630,7 @@
         <v>33</v>
       </c>
       <c r="Q149" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R149,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R149,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R149" t="s">
@@ -51762,7 +51749,7 @@
         <v>-80</v>
       </c>
       <c r="CB149" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC149" t="s">
         <v>144</v>
@@ -51919,7 +51906,7 @@
         <v>-80</v>
       </c>
       <c r="CB150" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC150" t="s">
         <v>144</v>
@@ -51973,7 +51960,7 @@
         <v>33</v>
       </c>
       <c r="Q151" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R151,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R151,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R151" t="s">
@@ -52092,7 +52079,7 @@
         <v>-80</v>
       </c>
       <c r="CB151" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC151" t="s">
         <v>144</v>
@@ -52146,7 +52133,7 @@
         <v>33</v>
       </c>
       <c r="Q152" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R152,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R152,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R152" t="s">
@@ -52265,7 +52252,7 @@
         <v>-80</v>
       </c>
       <c r="CB152" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC152" t="s">
         <v>144</v>
@@ -52319,7 +52306,7 @@
         <v>33</v>
       </c>
       <c r="Q153" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R153,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R153,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R153" t="s">
@@ -52438,7 +52425,7 @@
         <v>-80</v>
       </c>
       <c r="CB153" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC153" t="s">
         <v>144</v>
@@ -52492,7 +52479,7 @@
         <v>33</v>
       </c>
       <c r="Q154" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R154,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R154,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R154" t="s">
@@ -52611,7 +52598,7 @@
         <v>-80</v>
       </c>
       <c r="CB154" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC154" t="s">
         <v>141</v>
@@ -52768,7 +52755,7 @@
         <v>-80</v>
       </c>
       <c r="CB155" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CC155" t="s">
         <v>141</v>
@@ -52822,7 +52809,7 @@
         <v>33</v>
       </c>
       <c r="Q156" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R156,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R156,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R156" t="s">
@@ -52944,7 +52931,7 @@
         <v>-80</v>
       </c>
       <c r="CB156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC156" t="s">
         <v>141</v>
@@ -52998,7 +52985,7 @@
         <v>33</v>
       </c>
       <c r="Q157" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R157,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R157,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R157" t="s">
@@ -53120,7 +53107,7 @@
         <v>-80</v>
       </c>
       <c r="CB157" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC157" t="s">
         <v>141</v>
@@ -53174,7 +53161,7 @@
         <v>33</v>
       </c>
       <c r="Q158" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R158,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R158,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R158" t="s">
@@ -53296,7 +53283,7 @@
         <v>-80</v>
       </c>
       <c r="CB158" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC158" t="s">
         <v>144</v>
@@ -53350,7 +53337,7 @@
         <v>33</v>
       </c>
       <c r="Q159" t="str">
-        <f>_xlfn.XLOOKUP('all joined'!R159,polymer!$C$26:$C$34,polymer!$B$26:$B$34)</f>
+        <f>_xlfn.XLOOKUP('all joined'!R159,polymer!$B$26:$B$34,polymer!$C$26:$C$34)</f>
         <v>poly(styrene)</v>
       </c>
       <c r="R159" t="s">
@@ -53472,7 +53459,7 @@
         <v>-80</v>
       </c>
       <c r="CB159" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC159" t="s">
         <v>144</v>
@@ -53632,7 +53619,7 @@
         <v>-80</v>
       </c>
       <c r="CB160" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC160" t="s">
         <v>144</v>
@@ -53786,7 +53773,7 @@
         <v>-80</v>
       </c>
       <c r="CB161" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC161" t="s">
         <v>117</v>
@@ -53940,7 +53927,7 @@
         <v>-80</v>
       </c>
       <c r="CB162" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC162" t="s">
         <v>117</v>
@@ -54094,7 +54081,7 @@
         <v>-80</v>
       </c>
       <c r="CB163" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC163" t="s">
         <v>117</v>
@@ -54248,7 +54235,7 @@
         <v>-80</v>
       </c>
       <c r="CB164" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC164" t="s">
         <v>117</v>
@@ -54402,7 +54389,7 @@
         <v>-80</v>
       </c>
       <c r="CB165" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC165" t="s">
         <v>117</v>
@@ -54556,7 +54543,7 @@
         <v>-80</v>
       </c>
       <c r="CB166" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC166" t="s">
         <v>117</v>
@@ -54711,7 +54698,7 @@
         <v>-80</v>
       </c>
       <c r="CB167" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC167" t="s">
         <v>117</v>
@@ -54866,7 +54853,7 @@
         <v>-80</v>
       </c>
       <c r="CB168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC168" t="s">
         <v>117</v>
@@ -55021,7 +55008,7 @@
         <v>-80</v>
       </c>
       <c r="CB169" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC169" t="s">
         <v>117</v>
@@ -55176,7 +55163,7 @@
         <v>-80</v>
       </c>
       <c r="CB170" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC170" t="s">
         <v>117</v>
@@ -55331,7 +55318,7 @@
         <v>-80</v>
       </c>
       <c r="CB171" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC171" t="s">
         <v>117</v>
@@ -55486,7 +55473,7 @@
         <v>-80</v>
       </c>
       <c r="CB172" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC172" t="s">
         <v>117</v>
@@ -55641,7 +55628,7 @@
         <v>-80</v>
       </c>
       <c r="CB173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC173" t="s">
         <v>117</v>
@@ -55798,7 +55785,7 @@
         <v>-80</v>
       </c>
       <c r="CB174" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC174" t="s">
         <v>117</v>
@@ -55955,7 +55942,7 @@
         <v>-80</v>
       </c>
       <c r="CB175" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC175" t="s">
         <v>117</v>
@@ -56112,7 +56099,7 @@
         <v>-80</v>
       </c>
       <c r="CB176" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC176" t="s">
         <v>117</v>
@@ -56269,7 +56256,7 @@
         <v>-80</v>
       </c>
       <c r="CB177" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC177" t="s">
         <v>117</v>
@@ -56426,7 +56413,7 @@
         <v>-80</v>
       </c>
       <c r="CB178" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC178" t="s">
         <v>117</v>
@@ -56583,7 +56570,7 @@
         <v>-80</v>
       </c>
       <c r="CB179" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="CC179" t="s">
         <v>117</v>
@@ -56598,8 +56585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E501E30-292D-4505-881D-4211C19CC92E}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -58741,7 +58728,7 @@
   <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -58762,20 +58749,20 @@
       <c r="B1" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>351</v>
       </c>
       <c r="D1" t="s">
         <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -58789,7 +58776,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -58812,7 +58799,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -58835,7 +58822,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -58858,7 +58845,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -58881,7 +58868,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -58904,7 +58891,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -58927,7 +58914,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -58950,7 +58937,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -58973,7 +58960,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -58996,7 +58983,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -59019,7 +59006,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -59042,7 +59029,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -59065,7 +59052,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -59088,7 +59075,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -59111,7 +59098,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -59134,7 +59121,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -59157,7 +59144,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -59180,7 +59167,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -59203,7 +59190,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -59226,7 +59213,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -59249,7 +59236,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -59272,7 +59259,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -59295,7 +59282,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -59318,7 +59305,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -59341,7 +59328,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -59364,7 +59351,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -59387,7 +59374,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -59410,7 +59397,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -59433,7 +59420,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -59456,7 +59443,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -59479,7 +59466,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -59502,7 +59489,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -59525,7 +59512,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -59548,7 +59535,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -59571,7 +59558,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -59594,7 +59581,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -59617,7 +59604,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -59640,7 +59627,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -59663,7 +59650,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -59686,7 +59673,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -59709,7 +59696,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -59732,7 +59719,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -59755,7 +59742,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -59778,7 +59765,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -59801,7 +59788,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -59824,7 +59811,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -59847,7 +59834,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -59870,7 +59857,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -59893,7 +59880,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>11</v>
@@ -59916,7 +59903,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>11</v>
@@ -59939,7 +59926,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -59962,7 +59949,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -59985,7 +59972,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -60008,7 +59995,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -60031,7 +60018,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -60054,7 +60041,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -60077,7 +60064,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -60100,7 +60087,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -60123,7 +60110,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -60146,7 +60133,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -60169,7 +60156,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -60192,7 +60179,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -60215,7 +60202,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -60238,7 +60225,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -60261,7 +60248,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -60284,7 +60271,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -60307,7 +60294,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -60330,7 +60317,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -60353,7 +60340,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -60376,7 +60363,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -60399,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -60422,7 +60409,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -60445,7 +60432,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -60468,7 +60455,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -60491,7 +60478,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -60514,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -60537,7 +60524,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -60560,7 +60547,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -60583,7 +60570,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -60606,7 +60593,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -60629,7 +60616,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -60652,7 +60639,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -60675,7 +60662,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -60698,7 +60685,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -60721,7 +60708,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -60744,7 +60731,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -60767,7 +60754,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -60790,7 +60777,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -60813,7 +60800,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -60836,7 +60823,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -60859,7 +60846,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -60882,7 +60869,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -60905,7 +60892,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -60928,7 +60915,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -60951,7 +60938,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -60974,7 +60961,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -60997,7 +60984,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -61020,7 +61007,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -61043,7 +61030,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -61066,7 +61053,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -61089,7 +61076,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -61112,7 +61099,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -61135,7 +61122,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -61158,7 +61145,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -61181,7 +61168,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -61204,7 +61191,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -61227,7 +61214,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -61250,7 +61237,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -61273,7 +61260,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -61296,7 +61283,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -61319,7 +61306,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -61342,7 +61329,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -61365,7 +61352,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -61388,7 +61375,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -61411,7 +61398,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -61434,7 +61421,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>12</v>
@@ -61457,7 +61444,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118">
         <v>12</v>
@@ -61480,7 +61467,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119">
         <v>12</v>
@@ -61503,7 +61490,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -61526,7 +61513,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -61549,7 +61536,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -61572,7 +61559,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -61595,7 +61582,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -61618,7 +61605,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -61641,7 +61628,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -61664,7 +61651,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -61687,7 +61674,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -61710,7 +61697,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -61733,7 +61720,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -61756,7 +61743,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -61779,7 +61766,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -61802,7 +61789,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -61825,7 +61812,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -61848,7 +61835,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -61871,7 +61858,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -61894,7 +61881,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -61917,7 +61904,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -61940,7 +61927,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>4</v>
@@ -61963,7 +61950,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -61986,7 +61973,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -62009,7 +61996,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -62032,7 +62019,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -62055,7 +62042,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -62078,7 +62065,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -62101,7 +62088,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -62124,7 +62111,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -62147,7 +62134,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -62170,7 +62157,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -62193,7 +62180,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -62216,7 +62203,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -62239,7 +62226,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -62262,7 +62249,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -62285,7 +62272,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -62308,7 +62295,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -62331,7 +62318,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -62354,7 +62341,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -62377,7 +62364,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -62400,7 +62387,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -62423,7 +62410,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -62446,7 +62433,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -62469,7 +62456,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -62492,7 +62479,7 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -62515,7 +62502,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>4</v>
@@ -62538,7 +62525,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -62561,7 +62548,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>4</v>
@@ -62584,7 +62571,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>4</v>
@@ -62607,7 +62594,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -63020,7 +63007,7 @@
   <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -63048,13 +63035,13 @@
         <v>342</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="N1" t="s">
         <v>343</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>285</v>
@@ -63077,19 +63064,19 @@
         <v>4</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>7964</v>
       </c>
       <c r="Q2">
-        <f>1-S2</f>
+        <f t="shared" ref="Q2:Q33" si="0">1-S2</f>
         <v>1</v>
       </c>
     </row>
@@ -63110,7 +63097,7 @@
         <v>7964</v>
       </c>
       <c r="Q3">
-        <f>1-S3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63131,7 +63118,7 @@
         <v>6212</v>
       </c>
       <c r="Q4">
-        <f>1-S4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63158,7 +63145,7 @@
         <v>6212</v>
       </c>
       <c r="Q5">
-        <f>1-S5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63185,7 +63172,7 @@
         <v>6212</v>
       </c>
       <c r="Q6">
-        <f>1-S6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63212,7 +63199,7 @@
         <v>6212</v>
       </c>
       <c r="Q7">
-        <f>1-S7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63239,7 +63226,7 @@
         <v>6212</v>
       </c>
       <c r="Q8">
-        <f>1-S8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63266,7 +63253,7 @@
         <v>6212</v>
       </c>
       <c r="Q9">
-        <f>1-S9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63293,7 +63280,7 @@
         <v>6212</v>
       </c>
       <c r="Q10">
-        <f>1-S10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63320,7 +63307,7 @@
         <v>6212</v>
       </c>
       <c r="Q11">
-        <f>1-S11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63347,7 +63334,7 @@
         <v>6212</v>
       </c>
       <c r="Q12">
-        <f>1-S12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63368,7 +63355,7 @@
         <v>7964</v>
       </c>
       <c r="Q13">
-        <f>1-S13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63389,7 +63376,7 @@
         <v>7964</v>
       </c>
       <c r="Q14">
-        <f>1-S14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63410,7 +63397,7 @@
         <v>7964</v>
       </c>
       <c r="Q15">
-        <f>1-S15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63431,7 +63418,7 @@
         <v>7239</v>
       </c>
       <c r="Q16">
-        <f>1-S16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63458,7 +63445,7 @@
         <v>7239</v>
       </c>
       <c r="Q17">
-        <f>1-S17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63485,7 +63472,7 @@
         <v>7239</v>
       </c>
       <c r="Q18">
-        <f>1-S18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63512,7 +63499,7 @@
         <v>7239</v>
       </c>
       <c r="Q19">
-        <f>1-S19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63539,7 +63526,7 @@
         <v>7239</v>
       </c>
       <c r="Q20">
-        <f>1-S20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63566,7 +63553,7 @@
         <v>7239</v>
       </c>
       <c r="Q21">
-        <f>1-S21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63593,7 +63580,7 @@
         <v>7239</v>
       </c>
       <c r="Q22">
-        <f>1-S22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63620,7 +63607,7 @@
         <v>7239</v>
       </c>
       <c r="Q23">
-        <f>1-S23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63641,7 +63628,7 @@
         <v>6212</v>
       </c>
       <c r="Q24">
-        <f>1-S24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63662,7 +63649,7 @@
         <v>7239</v>
       </c>
       <c r="Q25">
-        <f>1-S25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63683,7 +63670,7 @@
         <v>7239</v>
       </c>
       <c r="Q26">
-        <f>1-S26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63704,7 +63691,7 @@
         <v>6212</v>
       </c>
       <c r="Q27">
-        <f>1-S27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63725,7 +63712,7 @@
         <v>6212</v>
       </c>
       <c r="Q28">
-        <f>1-S28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63746,7 +63733,7 @@
         <v>6212</v>
       </c>
       <c r="Q29">
-        <f>1-S29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63767,7 +63754,7 @@
         <v>6212</v>
       </c>
       <c r="Q30">
-        <f>1-S30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63788,7 +63775,7 @@
         <v>6212</v>
       </c>
       <c r="Q31">
-        <f>1-S31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63809,7 +63796,7 @@
         <v>6212</v>
       </c>
       <c r="Q32">
-        <f>1-S32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63830,7 +63817,7 @@
         <v>6212</v>
       </c>
       <c r="Q33">
-        <f>1-S33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -63851,7 +63838,7 @@
         <v>7239</v>
       </c>
       <c r="Q34">
-        <f>1-S34</f>
+        <f t="shared" ref="Q34:Q65" si="1">1-S34</f>
         <v>1</v>
       </c>
     </row>
@@ -63875,7 +63862,7 @@
         <v>7239</v>
       </c>
       <c r="Q35">
-        <f>1-S35</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -63897,7 +63884,7 @@
         <v>6212</v>
       </c>
       <c r="Q36">
-        <f>1-S36</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="R36">
@@ -63925,7 +63912,7 @@
         <v>6212</v>
       </c>
       <c r="Q37">
-        <f>1-S37</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R37" s="21"/>
@@ -63949,7 +63936,7 @@
         <v>6212</v>
       </c>
       <c r="Q38">
-        <f>1-S38</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="R38">
@@ -63982,7 +63969,7 @@
         <v>6212</v>
       </c>
       <c r="Q39">
-        <f>1-S39</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="R39">
@@ -64015,7 +64002,7 @@
         <v>6212</v>
       </c>
       <c r="Q40">
-        <f>1-S40</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="R40">
@@ -64042,7 +64029,7 @@
         <v>32</v>
       </c>
       <c r="Q41">
-        <f>1-S41</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64066,7 +64053,7 @@
         <v>0.5</v>
       </c>
       <c r="Q42">
-        <f>1-S42</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64087,7 +64074,7 @@
         <v>6212</v>
       </c>
       <c r="Q43">
-        <f>1-S43</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64108,7 +64095,7 @@
         <v>6212</v>
       </c>
       <c r="Q44">
-        <f>1-S44</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64129,7 +64116,7 @@
         <v>6212</v>
       </c>
       <c r="Q45">
-        <f>1-S45</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64150,7 +64137,7 @@
         <v>6212</v>
       </c>
       <c r="Q46">
-        <f>1-S46</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64171,7 +64158,7 @@
         <v>6212</v>
       </c>
       <c r="Q47">
-        <f>1-S47</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64192,7 +64179,7 @@
         <v>6212</v>
       </c>
       <c r="Q48">
-        <f>1-S48</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64213,7 +64200,7 @@
         <v>6212</v>
       </c>
       <c r="Q49">
-        <f>1-S49</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64234,7 +64221,7 @@
         <v>6212</v>
       </c>
       <c r="Q50">
-        <f>1-S50</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64255,7 +64242,7 @@
         <v>6212</v>
       </c>
       <c r="Q51">
-        <f>1-S51</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64276,7 +64263,7 @@
         <v>6212</v>
       </c>
       <c r="Q52">
-        <f>1-S52</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64297,7 +64284,7 @@
         <v>6212</v>
       </c>
       <c r="Q53">
-        <f>1-S53</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64318,7 +64305,7 @@
         <v>7964</v>
       </c>
       <c r="Q54">
-        <f>1-S54</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64339,7 +64326,7 @@
         <v>7964</v>
       </c>
       <c r="Q55">
-        <f>1-S55</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64360,7 +64347,7 @@
         <v>7964</v>
       </c>
       <c r="Q56">
-        <f>1-S56</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64381,7 +64368,7 @@
         <v>7964</v>
       </c>
       <c r="Q57">
-        <f>1-S57</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64402,7 +64389,7 @@
         <v>7964</v>
       </c>
       <c r="Q58">
-        <f>1-S58</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64423,7 +64410,7 @@
         <v>7239</v>
       </c>
       <c r="Q59">
-        <f>1-S59</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64444,7 +64431,7 @@
         <v>7239</v>
       </c>
       <c r="Q60">
-        <f>1-S60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64465,7 +64452,7 @@
         <v>6212</v>
       </c>
       <c r="Q61">
-        <f>1-S61</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64486,7 +64473,7 @@
         <v>6212</v>
       </c>
       <c r="Q62">
-        <f>1-S62</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64507,7 +64494,7 @@
         <v>6212</v>
       </c>
       <c r="Q63">
-        <f>1-S63</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64528,7 +64515,7 @@
         <v>7239</v>
       </c>
       <c r="Q64">
-        <f>1-S64</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64549,7 +64536,7 @@
         <v>7964</v>
       </c>
       <c r="Q65">
-        <f>1-S65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -64570,7 +64557,7 @@
         <v>7964</v>
       </c>
       <c r="Q66">
-        <f>1-S66</f>
+        <f t="shared" ref="Q66:Q88" si="2">1-S66</f>
         <v>1</v>
       </c>
     </row>
@@ -64591,7 +64578,7 @@
         <v>7964</v>
       </c>
       <c r="Q67">
-        <f>1-S67</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64612,7 +64599,7 @@
         <v>7964</v>
       </c>
       <c r="Q68">
-        <f>1-S68</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64633,7 +64620,7 @@
         <v>7964</v>
       </c>
       <c r="Q69">
-        <f>1-S69</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64654,7 +64641,7 @@
         <v>7964</v>
       </c>
       <c r="Q70">
-        <f>1-S70</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64681,7 +64668,7 @@
         <v>7964</v>
       </c>
       <c r="Q71">
-        <f>1-S71</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64708,7 +64695,7 @@
         <v>7964</v>
       </c>
       <c r="Q72">
-        <f>1-S72</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64735,7 +64722,7 @@
         <v>7964</v>
       </c>
       <c r="Q73">
-        <f>1-S73</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64762,7 +64749,7 @@
         <v>7964</v>
       </c>
       <c r="Q74">
-        <f>1-S74</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64789,7 +64776,7 @@
         <v>7964</v>
       </c>
       <c r="Q75">
-        <f>1-S75</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64816,7 +64803,7 @@
         <v>7964</v>
       </c>
       <c r="Q76">
-        <f>1-S76</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64843,7 +64830,7 @@
         <v>7964</v>
       </c>
       <c r="Q77">
-        <f>1-S77</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64870,7 +64857,7 @@
         <v>7964</v>
       </c>
       <c r="Q78">
-        <f>1-S78</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64891,7 +64878,7 @@
         <v>7964</v>
       </c>
       <c r="Q79">
-        <f>1-S79</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64912,7 +64899,7 @@
         <v>7964</v>
       </c>
       <c r="Q80">
-        <f>1-S80</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64933,7 +64920,7 @@
         <v>7964</v>
       </c>
       <c r="Q81">
-        <f>1-S81</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64954,7 +64941,7 @@
         <v>7964</v>
       </c>
       <c r="Q82">
-        <f>1-S82</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64975,7 +64962,7 @@
         <v>7964</v>
       </c>
       <c r="Q83">
-        <f>1-S83</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -64996,7 +64983,7 @@
         <v>7964</v>
       </c>
       <c r="Q84">
-        <f>1-S84</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -65017,7 +65004,7 @@
         <v>7964</v>
       </c>
       <c r="Q85">
-        <f>1-S85</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -65038,7 +65025,7 @@
         <v>7964</v>
       </c>
       <c r="Q86">
-        <f>1-S86</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -65059,7 +65046,7 @@
         <v>7964</v>
       </c>
       <c r="Q87">
-        <f>1-S87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -65080,7 +65067,7 @@
         <v>7964</v>
       </c>
       <c r="Q88">
-        <f>1-S88</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -65094,7 +65081,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -65109,7 +65096,7 @@
         <v>344</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>294</v>
@@ -66120,7 +66107,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -66131,13 +66118,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>284</v>
       </c>
     </row>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B5B6A-01D9-4D23-95D8-34F819A33BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9783BFBD-E407-46B2-AEE6-C1C6909207AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="polymer" sheetId="6" r:id="rId8"/>
     <sheet name="solution_makeup_polymer" sheetId="13" r:id="rId9"/>
     <sheet name="solution_treatment" sheetId="14" r:id="rId10"/>
-    <sheet name="solution_treatment_order" sheetId="23" r:id="rId11"/>
-    <sheet name="solution_treatment_step" sheetId="24" r:id="rId12"/>
+    <sheet name="solution_treatment_step" sheetId="24" r:id="rId11"/>
+    <sheet name="solution_treatment_order" sheetId="23" r:id="rId12"/>
     <sheet name="device_fabrication" sheetId="15" r:id="rId13"/>
     <sheet name="substrate_pretreat" sheetId="16" r:id="rId14"/>
     <sheet name="substrate_pretreat_step" sheetId="18" r:id="rId15"/>
@@ -24919,8 +24919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B1B37-3478-4ED9-8C8E-E87200A72E2D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24945,48 +24945,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D0F74D-EB4A-49BC-9FAF-46A05638A96A}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1F663-9F56-4E39-9F36-D3287E533545}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -25034,6 +24992,48 @@
       </c>
       <c r="E2" s="24">
         <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D0F74D-EB4A-49BC-9FAF-46A05638A96A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -27748,7 +27748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE0F98E-1558-4CEC-B9BF-15230FA6A859}">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8E4AAA-AEAB-49F3-8C70-8024A52BE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8EEDB-DA5F-441A-9F06-37C2FB443353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -26305,7 +26305,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26919,16 +26919,15 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8EEDB-DA5F-441A-9F06-37C2FB443353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17294A8-1097-4BC6-A5BB-A8AFC793DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -2304,7 +2304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -26304,8 +26304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51F8CDF-CF55-4E90-B7AF-84713B0801FF}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27283,10 +27283,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD7F2B-F87D-406C-848F-DAA215CB48D5}">
   <dimension ref="A1:CC179"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
+++ b/db_feed/DPPDTT/DPPDTT_dataset_feed_D6_ALcopy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\DPPDTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17294A8-1097-4BC6-A5BB-A8AFC793DE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864E0EB-8C21-48C5-88CB-313552D62CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPPDTT_D6_combined (raw)" sheetId="1" r:id="rId1"/>
@@ -2304,7 +2304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -26302,10 +26302,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51F8CDF-CF55-4E90-B7AF-84713B0801FF}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26317,12 +26317,13 @@
     <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>360</v>
       </c>
@@ -26344,17 +26345,18 @@
       <c r="G1" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26364,11 +26366,11 @@
       <c r="C2">
         <v>1000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -26381,44 +26383,44 @@
       <c r="D3">
         <v>60</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>302</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>305</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -26431,11 +26433,11 @@
       <c r="D7">
         <v>150</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -26448,11 +26450,11 @@
       <c r="D8">
         <v>120</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26465,11 +26467,11 @@
       <c r="D9">
         <v>240</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -26482,11 +26484,11 @@
       <c r="D10">
         <v>240</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -26499,11 +26501,11 @@
       <c r="D11">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -26516,11 +26518,11 @@
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -26536,17 +26538,17 @@
       <c r="G13">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>345</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>319</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -26562,17 +26564,17 @@
       <c r="G14">
         <v>8</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>346</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -26585,14 +26587,14 @@
       <c r="D15">
         <v>60</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>319</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -26611,8 +26613,9 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -26630,14 +26633,14 @@
       <c r="G17">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>345</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -26653,14 +26656,14 @@
       <c r="G18">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>346</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -26673,48 +26676,48 @@
       <c r="G19">
         <v>90</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>346</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>319</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>302</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>347</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>319</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>302</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>347</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -26727,14 +26730,14 @@
       <c r="D22">
         <v>150</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>347</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -26747,17 +26750,17 @@
       <c r="G23">
         <v>90</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>346</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>319</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -26770,13 +26773,13 @@
       <c r="G24">
         <v>90</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>346</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>319</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>56</v>
       </c>
     </row>
@@ -26918,8 +26921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACDC457-8A4B-48E4-A1DB-FB5238951F33}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27283,7 +27286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD7F2B-F87D-406C-848F-DAA215CB48D5}">
   <dimension ref="A1:CC179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
